--- a/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/40/Output_19_21.xlsx
+++ b/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/40/Output_19_21.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-574257.6261515218</v>
+        <v>-574968.7397850394</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2150917.211406943</v>
+        <v>2150917.211406942</v>
       </c>
     </row>
     <row r="8">
@@ -1367,25 +1367,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>239.2980585815354</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>222.566744269083</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>238.6996843454279</v>
       </c>
       <c r="F11" t="n">
-        <v>196.7062695643496</v>
+        <v>262.8755120706813</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>269.8962134915471</v>
       </c>
       <c r="H11" t="n">
-        <v>188.1932235828415</v>
+        <v>188.1932235828416</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1418,25 +1418,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>49.1367813646874</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>100.5630836146152</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>206.111765590695</v>
       </c>
       <c r="X11" t="n">
-        <v>226.4432477213097</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>242.2687203413762</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -1446,22 +1446,22 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>20.95377420048519</v>
+        <v>165.3721256103448</v>
       </c>
       <c r="C12" t="n">
-        <v>26.60723251754135</v>
+        <v>26.60723251754143</v>
       </c>
       <c r="D12" t="n">
-        <v>1.694072164785922</v>
+        <v>1.694072164786007</v>
       </c>
       <c r="E12" t="n">
-        <v>156.0334337071738</v>
+        <v>11.61508229731427</v>
       </c>
       <c r="F12" t="n">
-        <v>143.5062320835493</v>
+        <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>135.7341774550896</v>
+        <v>0</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
@@ -1494,28 +1494,28 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>76.74959551402542</v>
       </c>
       <c r="S12" t="n">
-        <v>19.17460593416256</v>
+        <v>154.8066625186792</v>
       </c>
       <c r="T12" t="n">
-        <v>52.79917568609952</v>
+        <v>197.2175270959592</v>
       </c>
       <c r="U12" t="n">
         <v>224.6381617547043</v>
       </c>
       <c r="V12" t="n">
-        <v>87.49037962979548</v>
+        <v>231.9087310396551</v>
       </c>
       <c r="W12" t="n">
-        <v>249.98934675</v>
+        <v>105.5709953401405</v>
       </c>
       <c r="X12" t="n">
-        <v>137.6028721683819</v>
+        <v>60.04327819861871</v>
       </c>
       <c r="Y12" t="n">
-        <v>59.25280000872638</v>
+        <v>59.25280000872647</v>
       </c>
     </row>
     <row r="13">
@@ -1525,28 +1525,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>35.66534008082417</v>
+        <v>35.66534008082425</v>
       </c>
       <c r="C13" t="n">
-        <v>22.9182015213427</v>
+        <v>22.91820152134278</v>
       </c>
       <c r="D13" t="n">
-        <v>4.58721510465972</v>
+        <v>4.587215104659805</v>
       </c>
       <c r="E13" t="n">
-        <v>2.556272763339535</v>
+        <v>2.556272763339621</v>
       </c>
       <c r="F13" t="n">
-        <v>1.740669999944856</v>
+        <v>1.740669999944942</v>
       </c>
       <c r="G13" t="n">
-        <v>23.22892217192739</v>
+        <v>23.22892217192747</v>
       </c>
       <c r="H13" t="n">
-        <v>15.0613168658029</v>
+        <v>15.06131686580298</v>
       </c>
       <c r="I13" t="n">
-        <v>2.053112003489576</v>
+        <v>2.053112003489661</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,28 +1573,28 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>18.07741705268775</v>
+        <v>18.07741705268784</v>
       </c>
       <c r="S13" t="n">
-        <v>73.71615989036812</v>
+        <v>73.7161598903682</v>
       </c>
       <c r="T13" t="n">
-        <v>82.87876718427633</v>
+        <v>82.87876718427641</v>
       </c>
       <c r="U13" t="n">
-        <v>141.6207017803871</v>
+        <v>141.6207017803872</v>
       </c>
       <c r="V13" t="n">
-        <v>108.5179996570795</v>
+        <v>108.5179996570796</v>
       </c>
       <c r="W13" t="n">
-        <v>141.6742254775559</v>
+        <v>141.674225477556</v>
       </c>
       <c r="X13" t="n">
-        <v>81.72200852244961</v>
+        <v>81.7220085224497</v>
       </c>
       <c r="Y13" t="n">
-        <v>74.33032245790858</v>
+        <v>74.33032245790866</v>
       </c>
     </row>
     <row r="14">
@@ -1604,22 +1604,22 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>239.2980585815354</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>212.1863813447388</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>262.8755120706812</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>269.8962134915471</v>
+        <v>209.3101177550091</v>
       </c>
       <c r="H14" t="n">
         <v>188.1932235828416</v>
@@ -1655,22 +1655,22 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>49.13678136468734</v>
+        <v>49.13678136468735</v>
       </c>
       <c r="T14" t="n">
-        <v>76.18203808719865</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>107.0161961264909</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>184.1148701126597</v>
       </c>
       <c r="W14" t="n">
-        <v>82.89836416695934</v>
+        <v>206.111765590695</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>226.4432477213098</v>
       </c>
       <c r="Y14" t="n">
         <v>0</v>
@@ -1698,7 +1698,7 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>0</v>
+        <v>135.7341774550896</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
@@ -1731,25 +1731,25 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>76.74959551402542</v>
+        <v>76.64747464345277</v>
       </c>
       <c r="S15" t="n">
         <v>163.5929573440222</v>
       </c>
       <c r="T15" t="n">
-        <v>52.79917568609955</v>
+        <v>197.2175270959592</v>
       </c>
       <c r="U15" t="n">
-        <v>224.6381617547043</v>
+        <v>80.21981034484472</v>
       </c>
       <c r="V15" t="n">
-        <v>231.9087310396551</v>
+        <v>87.49037962979551</v>
       </c>
       <c r="W15" t="n">
         <v>249.98934675</v>
       </c>
       <c r="X15" t="n">
-        <v>195.6753347831354</v>
+        <v>204.4616296084783</v>
       </c>
       <c r="Y15" t="n">
         <v>59.25280000872641</v>
@@ -1841,10 +1841,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>132.2818624550446</v>
+        <v>132.2818624550445</v>
       </c>
       <c r="C17" t="n">
-        <v>115.5505481425922</v>
+        <v>115.5505481425921</v>
       </c>
       <c r="D17" t="n">
         <v>105.1701852182479</v>
@@ -1853,13 +1853,13 @@
         <v>131.683488218937</v>
       </c>
       <c r="F17" t="n">
-        <v>155.8593159441904</v>
+        <v>155.8593159441903</v>
       </c>
       <c r="G17" t="n">
         <v>162.8800173650562</v>
       </c>
       <c r="H17" t="n">
-        <v>81.17702745635069</v>
+        <v>81.17702745635066</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1901,10 +1901,10 @@
         <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>77.09867398616888</v>
+        <v>77.09867398616885</v>
       </c>
       <c r="W17" t="n">
-        <v>99.09556946420412</v>
+        <v>99.09556946420409</v>
       </c>
       <c r="X17" t="n">
         <v>119.4270515948189</v>
@@ -1920,7 +1920,7 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>165.3721256103448</v>
+        <v>0</v>
       </c>
       <c r="C18" t="n">
         <v>171.025583927401</v>
@@ -1929,16 +1929,16 @@
         <v>146.1124235746456</v>
       </c>
       <c r="E18" t="n">
-        <v>156.0334337071738</v>
+        <v>0</v>
       </c>
       <c r="F18" t="n">
-        <v>0</v>
+        <v>143.5062320835493</v>
       </c>
       <c r="G18" t="n">
-        <v>0</v>
+        <v>135.7341774550896</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
+        <v>107.6710676475892</v>
       </c>
       <c r="I18" t="n">
         <v>76.55219659209878</v>
@@ -1968,28 +1968,28 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>76.74959551402542</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
       </c>
       <c r="T18" t="n">
-        <v>0</v>
+        <v>197.2175270959592</v>
       </c>
       <c r="U18" t="n">
-        <v>224.6381617547043</v>
+        <v>0</v>
       </c>
       <c r="V18" t="n">
-        <v>231.9087310396551</v>
+        <v>0</v>
       </c>
       <c r="W18" t="n">
-        <v>143.833607854472</v>
+        <v>249.98934675</v>
       </c>
       <c r="X18" t="n">
         <v>0</v>
       </c>
       <c r="Y18" t="n">
-        <v>0</v>
+        <v>10.91811342013751</v>
       </c>
     </row>
     <row r="19">
@@ -2044,10 +2044,10 @@
         <v>0</v>
       </c>
       <c r="Q19" t="n">
-        <v>0</v>
+        <v>59.47009375416584</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>162.4957684625474</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -2056,16 +2056,16 @@
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>34.60450565389624</v>
+        <v>105.0716297492315</v>
       </c>
       <c r="V19" t="n">
-        <v>1.501803530588688</v>
+        <v>1.50180353058866</v>
       </c>
       <c r="W19" t="n">
-        <v>100.9506557308043</v>
+        <v>34.65802935106504</v>
       </c>
       <c r="X19" t="n">
-        <v>226.1403599323093</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -2078,7 +2078,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>132.2818624550439</v>
+        <v>132.2818624550445</v>
       </c>
       <c r="C20" t="n">
         <v>115.5505481425921</v>
@@ -2087,7 +2087,7 @@
         <v>105.1701852182479</v>
       </c>
       <c r="E20" t="n">
-        <v>131.683488218937</v>
+        <v>131.6834882189369</v>
       </c>
       <c r="F20" t="n">
         <v>155.8593159441903</v>
@@ -2096,7 +2096,7 @@
         <v>162.8800173650562</v>
       </c>
       <c r="H20" t="n">
-        <v>81.17702745635066</v>
+        <v>81.17702745635063</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2138,10 +2138,10 @@
         <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>77.09867398616885</v>
+        <v>77.09867398616882</v>
       </c>
       <c r="W20" t="n">
-        <v>99.09556946420409</v>
+        <v>99.09556946420406</v>
       </c>
       <c r="X20" t="n">
         <v>119.4270515948189</v>
@@ -2157,13 +2157,13 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>165.3721256103448</v>
+        <v>0</v>
       </c>
       <c r="C21" t="n">
-        <v>0</v>
+        <v>171.025583927401</v>
       </c>
       <c r="D21" t="n">
-        <v>116.718687658199</v>
+        <v>0</v>
       </c>
       <c r="E21" t="n">
         <v>0</v>
@@ -2175,10 +2175,10 @@
         <v>0</v>
       </c>
       <c r="H21" t="n">
-        <v>107.6710676475892</v>
+        <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>76.55219659209878</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2214,7 +2214,7 @@
         <v>0</v>
       </c>
       <c r="U21" t="n">
-        <v>0</v>
+        <v>224.6381617547043</v>
       </c>
       <c r="V21" t="n">
         <v>231.9087310396551</v>
@@ -2223,7 +2223,7 @@
         <v>249.98934675</v>
       </c>
       <c r="X21" t="n">
-        <v>0</v>
+        <v>70.65033182612682</v>
       </c>
       <c r="Y21" t="n">
         <v>203.671151418586</v>
@@ -2260,7 +2260,7 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>0</v>
+        <v>70.46712409533539</v>
       </c>
       <c r="K22" t="n">
         <v>0</v>
@@ -2281,25 +2281,25 @@
         <v>0</v>
       </c>
       <c r="Q22" t="n">
-        <v>0</v>
+        <v>59.47009375416584</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>162.4957684625474</v>
       </c>
       <c r="S22" t="n">
-        <v>218.1345113002278</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>74.2984750118208</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>34.60450565389621</v>
+        <v>34.60450565389618</v>
       </c>
       <c r="V22" t="n">
-        <v>1.50180353058866</v>
+        <v>1.501803530588631</v>
       </c>
       <c r="W22" t="n">
-        <v>34.65802935106504</v>
+        <v>34.65802935106501</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
@@ -2397,7 +2397,7 @@
         <v>165.3721256103448</v>
       </c>
       <c r="C24" t="n">
-        <v>171.025583927401</v>
+        <v>0</v>
       </c>
       <c r="D24" t="n">
         <v>146.1124235746456</v>
@@ -2409,7 +2409,7 @@
         <v>143.5062320835493</v>
       </c>
       <c r="G24" t="n">
-        <v>135.7341774550896</v>
+        <v>131.9976657463676</v>
       </c>
       <c r="H24" t="n">
         <v>107.6710676475892</v>
@@ -2445,13 +2445,13 @@
         <v>0</v>
       </c>
       <c r="S24" t="n">
-        <v>0</v>
+        <v>163.5929573440222</v>
       </c>
       <c r="T24" t="n">
         <v>0</v>
       </c>
       <c r="U24" t="n">
-        <v>0</v>
+        <v>224.6381617547043</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -2460,10 +2460,10 @@
         <v>0</v>
       </c>
       <c r="X24" t="n">
-        <v>9.797872044016941</v>
+        <v>0</v>
       </c>
       <c r="Y24" t="n">
-        <v>203.671151418586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25">
@@ -2473,7 +2473,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>180.0836914906838</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
@@ -2482,7 +2482,7 @@
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.9746241731992</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
@@ -2530,7 +2530,7 @@
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>34.60450565389621</v>
+        <v>180.0628677927456</v>
       </c>
       <c r="V25" t="n">
         <v>1.50180353058866</v>
@@ -2542,7 +2542,7 @@
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>112.3492948213648</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -2573,7 +2573,7 @@
         <v>191.2470849798743</v>
       </c>
       <c r="I26" t="n">
-        <v>43.03373798558681</v>
+        <v>43.03373798558678</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2603,10 +2603,10 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>52.19064276172011</v>
+        <v>52.19064276172008</v>
       </c>
       <c r="T26" t="n">
-        <v>79.23589948423141</v>
+        <v>79.23589948423138</v>
       </c>
       <c r="U26" t="n">
         <v>110.0700575235236</v>
@@ -2621,7 +2621,7 @@
         <v>229.4971091183425</v>
       </c>
       <c r="Y26" t="n">
-        <v>245.322581738409</v>
+        <v>245.3225817384089</v>
       </c>
     </row>
     <row r="27">
@@ -2634,25 +2634,25 @@
         <v>165.3721256103448</v>
       </c>
       <c r="C27" t="n">
-        <v>171.025583927401</v>
+        <v>29.66109391457411</v>
       </c>
       <c r="D27" t="n">
         <v>146.1124235746456</v>
       </c>
       <c r="E27" t="n">
-        <v>14.66894369434698</v>
+        <v>156.0334337071738</v>
       </c>
       <c r="F27" t="n">
         <v>143.5062320835493</v>
       </c>
       <c r="G27" t="n">
-        <v>0</v>
+        <v>135.7341774550896</v>
       </c>
       <c r="H27" t="n">
-        <v>0</v>
+        <v>107.6710676475892</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>76.55219659209878</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2679,13 +2679,13 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>76.74959551402542</v>
       </c>
       <c r="S27" t="n">
-        <v>119.4274600465801</v>
+        <v>163.5929573440222</v>
       </c>
       <c r="T27" t="n">
-        <v>197.2175270959592</v>
+        <v>180.4384626281947</v>
       </c>
       <c r="U27" t="n">
         <v>224.6381617547043</v>
@@ -2694,13 +2694,13 @@
         <v>231.9087310396551</v>
       </c>
       <c r="W27" t="n">
-        <v>249.98934675</v>
+        <v>108.6248567371732</v>
       </c>
       <c r="X27" t="n">
-        <v>204.4616296084783</v>
+        <v>63.09713959565138</v>
       </c>
       <c r="Y27" t="n">
-        <v>203.671151418586</v>
+        <v>62.30666140575914</v>
       </c>
     </row>
     <row r="28">
@@ -2710,28 +2710,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>38.71920147785696</v>
+        <v>38.71920147785693</v>
       </c>
       <c r="C28" t="n">
-        <v>25.97206291837549</v>
+        <v>25.97206291837546</v>
       </c>
       <c r="D28" t="n">
-        <v>7.64107650169251</v>
+        <v>7.641076501692481</v>
       </c>
       <c r="E28" t="n">
-        <v>5.610134160372326</v>
+        <v>5.610134160372297</v>
       </c>
       <c r="F28" t="n">
-        <v>4.794531396977646</v>
+        <v>4.794531396977618</v>
       </c>
       <c r="G28" t="n">
-        <v>26.28278356896018</v>
+        <v>26.28278356896015</v>
       </c>
       <c r="H28" t="n">
-        <v>18.11517826283568</v>
+        <v>18.11517826283566</v>
       </c>
       <c r="I28" t="n">
-        <v>5.106973400522366</v>
+        <v>5.106973400522338</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,16 +2758,16 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>21.13127844972054</v>
+        <v>21.13127844972051</v>
       </c>
       <c r="S28" t="n">
-        <v>76.77002128740091</v>
+        <v>76.77002128740088</v>
       </c>
       <c r="T28" t="n">
-        <v>85.93262858130912</v>
+        <v>85.93262858130909</v>
       </c>
       <c r="U28" t="n">
-        <v>144.6745631774199</v>
+        <v>144.6745631774198</v>
       </c>
       <c r="V28" t="n">
         <v>111.5718610541123</v>
@@ -2776,10 +2776,10 @@
         <v>144.7280868745887</v>
       </c>
       <c r="X28" t="n">
-        <v>84.7758699194824</v>
+        <v>84.77586991948237</v>
       </c>
       <c r="Y28" t="n">
-        <v>77.38418385494137</v>
+        <v>77.38418385494134</v>
       </c>
     </row>
     <row r="29">
@@ -2789,16 +2789,16 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>242.3519199785682</v>
+        <v>242.3519199785681</v>
       </c>
       <c r="C29" t="n">
-        <v>225.6206056661158</v>
+        <v>225.6206056661157</v>
       </c>
       <c r="D29" t="n">
         <v>215.2402427417715</v>
       </c>
       <c r="E29" t="n">
-        <v>241.7535457424606</v>
+        <v>241.7535457424605</v>
       </c>
       <c r="F29" t="n">
         <v>265.929373467714</v>
@@ -2810,7 +2810,7 @@
         <v>191.2470849798743</v>
       </c>
       <c r="I29" t="n">
-        <v>43.03373798558678</v>
+        <v>43.03373798558675</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2840,16 +2840,16 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>52.19064276172008</v>
+        <v>52.19064276172005</v>
       </c>
       <c r="T29" t="n">
-        <v>79.23589948423137</v>
+        <v>79.23589948423135</v>
       </c>
       <c r="U29" t="n">
         <v>110.0700575235236</v>
       </c>
       <c r="V29" t="n">
-        <v>187.1687315096925</v>
+        <v>187.1687315096924</v>
       </c>
       <c r="W29" t="n">
         <v>209.1656269877277</v>
@@ -2871,7 +2871,7 @@
         <v>165.3721256103448</v>
       </c>
       <c r="C30" t="n">
-        <v>171.025583927401</v>
+        <v>55.74080367367075</v>
       </c>
       <c r="D30" t="n">
         <v>146.1124235746456</v>
@@ -2883,13 +2883,13 @@
         <v>143.5062320835493</v>
       </c>
       <c r="G30" t="n">
-        <v>54.34021848852385</v>
+        <v>135.7341774550896</v>
       </c>
       <c r="H30" t="n">
-        <v>107.6710676475892</v>
+        <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>76.55219659209878</v>
+        <v>0</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2916,28 +2916,28 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>76.74959551402542</v>
       </c>
       <c r="S30" t="n">
-        <v>22.22846733119533</v>
+        <v>163.5929573440222</v>
       </c>
       <c r="T30" t="n">
-        <v>55.85303708313229</v>
+        <v>197.2175270959592</v>
       </c>
       <c r="U30" t="n">
-        <v>83.27367174187745</v>
+        <v>224.6381617547043</v>
       </c>
       <c r="V30" t="n">
         <v>231.9087310396551</v>
       </c>
       <c r="W30" t="n">
-        <v>249.98934675</v>
+        <v>108.6248567371731</v>
       </c>
       <c r="X30" t="n">
         <v>204.4616296084783</v>
       </c>
       <c r="Y30" t="n">
-        <v>203.671151418586</v>
+        <v>62.30666140575912</v>
       </c>
     </row>
     <row r="31">
@@ -2947,28 +2947,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>38.71920147785693</v>
+        <v>38.7192014778569</v>
       </c>
       <c r="C31" t="n">
-        <v>25.97206291837546</v>
+        <v>25.97206291837543</v>
       </c>
       <c r="D31" t="n">
-        <v>7.641076501692481</v>
+        <v>7.641076501692453</v>
       </c>
       <c r="E31" t="n">
-        <v>5.610134160372297</v>
+        <v>5.610134160372269</v>
       </c>
       <c r="F31" t="n">
-        <v>4.794531396977618</v>
+        <v>4.79453139697759</v>
       </c>
       <c r="G31" t="n">
-        <v>26.28278356896015</v>
+        <v>26.28278356896012</v>
       </c>
       <c r="H31" t="n">
-        <v>18.11517826283566</v>
+        <v>18.11517826283563</v>
       </c>
       <c r="I31" t="n">
-        <v>5.106973400522338</v>
+        <v>5.10697340052231</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,28 +2995,28 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>21.13127844972051</v>
+        <v>21.13127844972048</v>
       </c>
       <c r="S31" t="n">
-        <v>76.77002128740088</v>
+        <v>76.77002128740085</v>
       </c>
       <c r="T31" t="n">
-        <v>85.93262858130909</v>
+        <v>85.93262858130906</v>
       </c>
       <c r="U31" t="n">
         <v>144.6745631774198</v>
       </c>
       <c r="V31" t="n">
-        <v>111.5718610541123</v>
+        <v>111.5718610541122</v>
       </c>
       <c r="W31" t="n">
-        <v>144.7280868745887</v>
+        <v>144.7280868745886</v>
       </c>
       <c r="X31" t="n">
-        <v>84.77586991948237</v>
+        <v>84.77586991948235</v>
       </c>
       <c r="Y31" t="n">
-        <v>77.38418385494134</v>
+        <v>77.38418385494131</v>
       </c>
     </row>
     <row r="32">
@@ -3108,7 +3108,7 @@
         <v>165.3721256103448</v>
       </c>
       <c r="C33" t="n">
-        <v>171.025583927401</v>
+        <v>50.11049111593346</v>
       </c>
       <c r="D33" t="n">
         <v>146.1124235746456</v>
@@ -3117,7 +3117,7 @@
         <v>156.0334337071738</v>
       </c>
       <c r="F33" t="n">
-        <v>143.5062320835493</v>
+        <v>2.141742070722387</v>
       </c>
       <c r="G33" t="n">
         <v>0</v>
@@ -3153,13 +3153,13 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>76.74959551402542</v>
       </c>
       <c r="S33" t="n">
-        <v>22.2284673311953</v>
+        <v>163.5929573440222</v>
       </c>
       <c r="T33" t="n">
-        <v>153.0520297985172</v>
+        <v>197.2175270959592</v>
       </c>
       <c r="U33" t="n">
         <v>224.6381617547043</v>
@@ -3269,10 +3269,10 @@
         <v>145.0596178207277</v>
       </c>
       <c r="D35" t="n">
-        <v>134.6792548963834</v>
+        <v>134.6792548963835</v>
       </c>
       <c r="E35" t="n">
-        <v>161.1925578970725</v>
+        <v>161.1925578970726</v>
       </c>
       <c r="F35" t="n">
         <v>185.3683856223259</v>
@@ -3281,7 +3281,7 @@
         <v>192.3890870431918</v>
       </c>
       <c r="H35" t="n">
-        <v>110.6860971344862</v>
+        <v>110.6860971344863</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3320,16 +3320,16 @@
         <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>29.50906967813555</v>
+        <v>29.5090696781356</v>
       </c>
       <c r="V35" t="n">
-        <v>106.6077436643044</v>
+        <v>106.6077436643045</v>
       </c>
       <c r="W35" t="n">
-        <v>128.6046391423396</v>
+        <v>128.6046391423397</v>
       </c>
       <c r="X35" t="n">
-        <v>148.9361212729544</v>
+        <v>148.9361212729545</v>
       </c>
       <c r="Y35" t="n">
         <v>164.7615938930209</v>
@@ -3354,13 +3354,13 @@
         <v>156.0334337071738</v>
       </c>
       <c r="F36" t="n">
-        <v>0</v>
+        <v>143.5062320835493</v>
       </c>
       <c r="G36" t="n">
         <v>0</v>
       </c>
       <c r="H36" t="n">
-        <v>0</v>
+        <v>107.6710676475892</v>
       </c>
       <c r="I36" t="n">
         <v>0</v>
@@ -3393,19 +3393,19 @@
         <v>0</v>
       </c>
       <c r="S36" t="n">
-        <v>0</v>
+        <v>163.5929573440222</v>
       </c>
       <c r="T36" t="n">
-        <v>81.7446384174785</v>
+        <v>0</v>
       </c>
       <c r="U36" t="n">
-        <v>224.6381617547043</v>
+        <v>2.712683896489437</v>
       </c>
       <c r="V36" t="n">
         <v>231.9087310396551</v>
       </c>
       <c r="W36" t="n">
-        <v>249.98934675</v>
+        <v>138.8892059505328</v>
       </c>
       <c r="X36" t="n">
         <v>204.4616296084783</v>
@@ -3469,25 +3469,25 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>162.4957684625474</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>5.371640735921018</v>
+        <v>37.19512674099998</v>
       </c>
       <c r="U37" t="n">
-        <v>258.4328297996584</v>
+        <v>64.11357533203181</v>
       </c>
       <c r="V37" t="n">
-        <v>31.01087320872421</v>
+        <v>31.01087320872426</v>
       </c>
       <c r="W37" t="n">
-        <v>64.16709902920059</v>
+        <v>64.16709902920064</v>
       </c>
       <c r="X37" t="n">
-        <v>4.214882074094305</v>
+        <v>4.214882074094362</v>
       </c>
       <c r="Y37" t="n">
         <v>0</v>
@@ -3506,10 +3506,10 @@
         <v>145.0596178207277</v>
       </c>
       <c r="D38" t="n">
-        <v>134.6792548963835</v>
+        <v>134.6792548963834</v>
       </c>
       <c r="E38" t="n">
-        <v>161.1925578970726</v>
+        <v>161.1925578970725</v>
       </c>
       <c r="F38" t="n">
         <v>185.3683856223259</v>
@@ -3518,7 +3518,7 @@
         <v>192.3890870431918</v>
       </c>
       <c r="H38" t="n">
-        <v>110.6860971344863</v>
+        <v>110.6860971344862</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3557,16 +3557,16 @@
         <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>29.5090696781356</v>
+        <v>29.50906967813555</v>
       </c>
       <c r="V38" t="n">
-        <v>106.6077436643045</v>
+        <v>106.6077436643044</v>
       </c>
       <c r="W38" t="n">
-        <v>128.6046391423397</v>
+        <v>128.6046391423396</v>
       </c>
       <c r="X38" t="n">
-        <v>148.9361212729545</v>
+        <v>148.9361212729544</v>
       </c>
       <c r="Y38" t="n">
         <v>164.7615938930209</v>
@@ -3579,25 +3579,25 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>165.3721256103448</v>
+        <v>9.684932025103111</v>
       </c>
       <c r="C39" t="n">
-        <v>171.025583927401</v>
+        <v>0</v>
       </c>
       <c r="D39" t="n">
-        <v>146.1124235746456</v>
+        <v>0</v>
       </c>
       <c r="E39" t="n">
-        <v>156.0334337071738</v>
+        <v>0</v>
       </c>
       <c r="F39" t="n">
-        <v>143.5062320835493</v>
+        <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>135.7341774550896</v>
+        <v>0</v>
       </c>
       <c r="H39" t="n">
-        <v>0</v>
+        <v>107.6710676475892</v>
       </c>
       <c r="I39" t="n">
         <v>0</v>
@@ -3627,19 +3627,19 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>76.74959551402542</v>
       </c>
       <c r="S39" t="n">
-        <v>0</v>
+        <v>163.5929573440222</v>
       </c>
       <c r="T39" t="n">
-        <v>0</v>
+        <v>197.2175270959592</v>
       </c>
       <c r="U39" t="n">
-        <v>2.712683896489437</v>
+        <v>224.6381617547043</v>
       </c>
       <c r="V39" t="n">
-        <v>90.96631216636479</v>
+        <v>231.9087310396551</v>
       </c>
       <c r="W39" t="n">
         <v>249.98934675</v>
@@ -3712,22 +3712,22 @@
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>5.371640735921074</v>
+        <v>5.371640735921018</v>
       </c>
       <c r="U40" t="n">
-        <v>64.11357533203181</v>
+        <v>64.11357533203176</v>
       </c>
       <c r="V40" t="n">
-        <v>31.01087320872426</v>
+        <v>31.01087320872421</v>
       </c>
       <c r="W40" t="n">
-        <v>64.16709902920064</v>
+        <v>64.16709902920059</v>
       </c>
       <c r="X40" t="n">
-        <v>4.214882074094362</v>
+        <v>198.5341365417208</v>
       </c>
       <c r="Y40" t="n">
-        <v>194.3192544676263</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -3752,7 +3752,7 @@
         <v>186.6934739834826</v>
       </c>
       <c r="G41" t="n">
-        <v>193.7141754043485</v>
+        <v>193.7141754043484</v>
       </c>
       <c r="H41" t="n">
         <v>112.0111854956429</v>
@@ -3794,7 +3794,7 @@
         <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>30.83415803929223</v>
+        <v>30.83415803929222</v>
       </c>
       <c r="V41" t="n">
         <v>107.9328320254611</v>
@@ -3806,7 +3806,7 @@
         <v>150.2612096341111</v>
       </c>
       <c r="Y41" t="n">
-        <v>166.0866822541776</v>
+        <v>166.0866822541775</v>
       </c>
     </row>
     <row r="42">
@@ -3819,13 +3819,13 @@
         <v>165.3721256103448</v>
       </c>
       <c r="C42" t="n">
-        <v>171.025583927401</v>
+        <v>0</v>
       </c>
       <c r="D42" t="n">
         <v>0</v>
       </c>
       <c r="E42" t="n">
-        <v>156.0334337071738</v>
+        <v>0</v>
       </c>
       <c r="F42" t="n">
         <v>0</v>
@@ -3834,10 +3834,10 @@
         <v>0</v>
       </c>
       <c r="H42" t="n">
-        <v>1.833800123560603</v>
+        <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>76.55219659209878</v>
+        <v>0</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3864,16 +3864,16 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>76.74959551402542</v>
       </c>
       <c r="S42" t="n">
-        <v>0</v>
+        <v>163.5929573440222</v>
       </c>
       <c r="T42" t="n">
-        <v>0</v>
+        <v>197.2175270959592</v>
       </c>
       <c r="U42" t="n">
-        <v>224.6381617547043</v>
+        <v>192.523096150932</v>
       </c>
       <c r="V42" t="n">
         <v>231.9087310396551</v>
@@ -3916,7 +3916,7 @@
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>146.4714634133492</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3949,22 +3949,22 @@
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>6.69672909707772</v>
+        <v>6.696729097077691</v>
       </c>
       <c r="U43" t="n">
-        <v>253.1324763550315</v>
+        <v>65.43866369318843</v>
       </c>
       <c r="V43" t="n">
-        <v>32.33596156988091</v>
+        <v>32.33596156988088</v>
       </c>
       <c r="W43" t="n">
-        <v>65.49218739035729</v>
+        <v>65.49218739035726</v>
       </c>
       <c r="X43" t="n">
-        <v>5.539970435251007</v>
+        <v>5.539970435250979</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>41.22234924849394</v>
       </c>
     </row>
     <row r="44">
@@ -4031,7 +4031,7 @@
         <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>30.83415803929222</v>
+        <v>30.83415803929221</v>
       </c>
       <c r="V44" t="n">
         <v>107.9328320254611</v>
@@ -4056,7 +4056,7 @@
         <v>165.3721256103448</v>
       </c>
       <c r="C45" t="n">
-        <v>171.025583927401</v>
+        <v>0</v>
       </c>
       <c r="D45" t="n">
         <v>146.1124235746456</v>
@@ -4074,7 +4074,7 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>76.55219659209878</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4104,10 +4104,10 @@
         <v>0</v>
       </c>
       <c r="S45" t="n">
-        <v>0</v>
+        <v>163.5929573440222</v>
       </c>
       <c r="T45" t="n">
-        <v>9.367730554522394</v>
+        <v>0</v>
       </c>
       <c r="U45" t="n">
         <v>4.037772257646053</v>
@@ -4119,7 +4119,7 @@
         <v>249.98934675</v>
       </c>
       <c r="X45" t="n">
-        <v>204.4616296084783</v>
+        <v>144.7097901542809</v>
       </c>
       <c r="Y45" t="n">
         <v>203.671151418586</v>
@@ -4183,7 +4183,7 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>187.6938126618431</v>
       </c>
       <c r="T46" t="n">
         <v>6.696729097077691</v>
@@ -4195,7 +4195,7 @@
         <v>32.33596156988088</v>
       </c>
       <c r="W46" t="n">
-        <v>253.1860000522005</v>
+        <v>65.49218739035726</v>
       </c>
       <c r="X46" t="n">
         <v>5.539970435250979</v>
@@ -5015,22 +5015,22 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>640.7198906917733</v>
+        <v>996.4758463223027</v>
       </c>
       <c r="C11" t="n">
-        <v>415.9049974906793</v>
+        <v>996.4758463223027</v>
       </c>
       <c r="D11" t="n">
-        <v>415.9049974906793</v>
+        <v>996.4758463223027</v>
       </c>
       <c r="E11" t="n">
-        <v>415.9049974906793</v>
+        <v>755.3650540541936</v>
       </c>
       <c r="F11" t="n">
-        <v>217.2117959105284</v>
+        <v>489.8342337807781</v>
       </c>
       <c r="G11" t="n">
-        <v>217.2117959105284</v>
+        <v>217.2117959105285</v>
       </c>
       <c r="H11" t="n">
         <v>27.11763067533489</v>
@@ -5042,19 +5042,19 @@
         <v>71.85530028082081</v>
       </c>
       <c r="K11" t="n">
-        <v>261.182062706569</v>
+        <v>71.85530028082081</v>
       </c>
       <c r="L11" t="n">
-        <v>548.027731036382</v>
+        <v>190.3420379680717</v>
       </c>
       <c r="M11" t="n">
-        <v>882.4111001545639</v>
+        <v>524.7254070862537</v>
       </c>
       <c r="N11" t="n">
-        <v>1206.687966779858</v>
+        <v>849.0022737115476</v>
       </c>
       <c r="O11" t="n">
-        <v>1294.110365298515</v>
+        <v>1109.07937209369</v>
       </c>
       <c r="P11" t="n">
         <v>1294.110365298515</v>
@@ -5066,25 +5066,25 @@
         <v>1355.881533766744</v>
       </c>
       <c r="S11" t="n">
-        <v>1355.881533766744</v>
+        <v>1306.248421277161</v>
       </c>
       <c r="T11" t="n">
-        <v>1355.881533766744</v>
+        <v>1306.248421277161</v>
       </c>
       <c r="U11" t="n">
-        <v>1355.881533766744</v>
+        <v>1204.669548939166</v>
       </c>
       <c r="V11" t="n">
-        <v>1355.881533766744</v>
+        <v>1204.669548939166</v>
       </c>
       <c r="W11" t="n">
-        <v>1355.881533766744</v>
+        <v>996.4758463223027</v>
       </c>
       <c r="X11" t="n">
-        <v>1127.150980512896</v>
+        <v>996.4758463223027</v>
       </c>
       <c r="Y11" t="n">
-        <v>882.4351013801929</v>
+        <v>996.4758463223027</v>
       </c>
     </row>
     <row r="12">
@@ -5094,19 +5094,19 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>495.3753558552743</v>
+        <v>67.4372134830538</v>
       </c>
       <c r="C12" t="n">
-        <v>468.4993634133133</v>
+        <v>40.56122104109275</v>
       </c>
       <c r="D12" t="n">
-        <v>466.7881794084791</v>
+        <v>38.8500370362584</v>
       </c>
       <c r="E12" t="n">
-        <v>309.1786504113338</v>
+        <v>27.11763067533489</v>
       </c>
       <c r="F12" t="n">
-        <v>164.2228604279506</v>
+        <v>27.11763067533489</v>
       </c>
       <c r="G12" t="n">
         <v>27.11763067533489</v>
@@ -5121,49 +5121,49 @@
         <v>27.11763067533489</v>
       </c>
       <c r="K12" t="n">
-        <v>27.11763067533489</v>
+        <v>212.5653159065559</v>
       </c>
       <c r="L12" t="n">
-        <v>27.11763067533489</v>
+        <v>522.7722213289403</v>
       </c>
       <c r="M12" t="n">
-        <v>362.6983102826041</v>
+        <v>684.7201745522059</v>
       </c>
       <c r="N12" t="n">
-        <v>698.2789898898733</v>
+        <v>1020.300854159475</v>
       </c>
       <c r="O12" t="n">
-        <v>1033.859669497142</v>
+        <v>1355.881533766744</v>
       </c>
       <c r="P12" t="n">
-        <v>1287.070791914455</v>
+        <v>1355.881533766744</v>
       </c>
       <c r="Q12" t="n">
         <v>1355.881533766744</v>
       </c>
       <c r="R12" t="n">
-        <v>1355.881533766744</v>
+        <v>1278.356689813183</v>
       </c>
       <c r="S12" t="n">
-        <v>1336.513244944358</v>
+        <v>1121.986323632699</v>
       </c>
       <c r="T12" t="n">
-        <v>1283.180744251328</v>
+        <v>922.7767003034478</v>
       </c>
       <c r="U12" t="n">
-        <v>1056.273510155667</v>
+        <v>695.8694662077869</v>
       </c>
       <c r="V12" t="n">
-        <v>967.89938931749</v>
+        <v>461.6182227333877</v>
       </c>
       <c r="W12" t="n">
-        <v>715.3848976508233</v>
+        <v>354.9808537029427</v>
       </c>
       <c r="X12" t="n">
-        <v>576.3920974807405</v>
+        <v>294.331077744742</v>
       </c>
       <c r="Y12" t="n">
-        <v>516.5407843406128</v>
+        <v>234.4797646046142</v>
       </c>
     </row>
     <row r="13">
@@ -5173,76 +5173,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>99.99208565564464</v>
+        <v>99.99208565564525</v>
       </c>
       <c r="C13" t="n">
-        <v>76.84238714923788</v>
+        <v>76.84238714923841</v>
       </c>
       <c r="D13" t="n">
-        <v>72.20883653847049</v>
+        <v>72.20883653847092</v>
       </c>
       <c r="E13" t="n">
-        <v>69.62674283812753</v>
+        <v>69.62674283812787</v>
       </c>
       <c r="F13" t="n">
-        <v>67.8684903129307</v>
+        <v>67.86849031293096</v>
       </c>
       <c r="G13" t="n">
-        <v>44.4049325635091</v>
+        <v>44.40493256350928</v>
       </c>
       <c r="H13" t="n">
-        <v>29.19148118391022</v>
+        <v>29.19148118391031</v>
       </c>
       <c r="I13" t="n">
         <v>27.11763067533489</v>
       </c>
       <c r="J13" t="n">
-        <v>99.10172026762902</v>
+        <v>27.11763067533489</v>
       </c>
       <c r="K13" t="n">
-        <v>112.3461660108595</v>
+        <v>40.36207641856535</v>
       </c>
       <c r="L13" t="n">
-        <v>328.0722796913196</v>
+        <v>113.1140222032645</v>
       </c>
       <c r="M13" t="n">
-        <v>415.3719055681556</v>
+        <v>200.4136480801004</v>
       </c>
       <c r="N13" t="n">
-        <v>505.737003360739</v>
+        <v>392.601662968133</v>
       </c>
       <c r="O13" t="n">
-        <v>603.7060281348228</v>
+        <v>603.7060281348245</v>
       </c>
       <c r="P13" t="n">
-        <v>781.7548682568482</v>
+        <v>781.7548682568498</v>
       </c>
       <c r="Q13" t="n">
-        <v>865.8536433359851</v>
+        <v>865.8536433359866</v>
       </c>
       <c r="R13" t="n">
-        <v>847.593626111048</v>
+        <v>847.5936261110494</v>
       </c>
       <c r="S13" t="n">
-        <v>773.1328585450196</v>
+        <v>773.1328585450209</v>
       </c>
       <c r="T13" t="n">
-        <v>689.4169320962557</v>
+        <v>689.4169320962568</v>
       </c>
       <c r="U13" t="n">
-        <v>546.3657181766728</v>
+        <v>546.3657181766738</v>
       </c>
       <c r="V13" t="n">
-        <v>436.7515771089156</v>
+        <v>436.7515771089166</v>
       </c>
       <c r="W13" t="n">
-        <v>293.6462988487581</v>
+        <v>293.646298848759</v>
       </c>
       <c r="X13" t="n">
-        <v>211.0988154927484</v>
+        <v>211.0988154927492</v>
       </c>
       <c r="Y13" t="n">
-        <v>136.0176816968812</v>
+        <v>136.0176816968819</v>
       </c>
     </row>
     <row r="14">
@@ -5252,22 +5252,22 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>795.7487677800057</v>
+        <v>683.3495491310356</v>
       </c>
       <c r="C14" t="n">
-        <v>795.7487677800057</v>
+        <v>683.3495491310356</v>
       </c>
       <c r="D14" t="n">
-        <v>795.7487677800057</v>
+        <v>469.0198710050367</v>
       </c>
       <c r="E14" t="n">
-        <v>795.7487677800057</v>
+        <v>469.0198710050367</v>
       </c>
       <c r="F14" t="n">
-        <v>530.21794750659</v>
+        <v>469.0198710050367</v>
       </c>
       <c r="G14" t="n">
-        <v>257.5955096363405</v>
+        <v>257.5955096363406</v>
       </c>
       <c r="H14" t="n">
         <v>67.50134440114707</v>
@@ -5276,25 +5276,25 @@
         <v>27.11763067533489</v>
       </c>
       <c r="J14" t="n">
-        <v>71.85530028082081</v>
+        <v>27.11763067533489</v>
       </c>
       <c r="K14" t="n">
-        <v>71.85530028082081</v>
+        <v>27.11763067533489</v>
       </c>
       <c r="L14" t="n">
-        <v>358.7009686106338</v>
+        <v>313.9632990051479</v>
       </c>
       <c r="M14" t="n">
-        <v>693.0843377288159</v>
+        <v>524.7254070862537</v>
       </c>
       <c r="N14" t="n">
-        <v>1017.36120435411</v>
+        <v>849.0022737115476</v>
       </c>
       <c r="O14" t="n">
-        <v>1277.438302736252</v>
+        <v>1109.07937209369</v>
       </c>
       <c r="P14" t="n">
-        <v>1355.881533766744</v>
+        <v>1294.110365298515</v>
       </c>
       <c r="Q14" t="n">
         <v>1355.881533766744</v>
@@ -5306,22 +5306,22 @@
         <v>1306.248421277161</v>
       </c>
       <c r="T14" t="n">
-        <v>1229.296867653728</v>
+        <v>1306.248421277161</v>
       </c>
       <c r="U14" t="n">
-        <v>1121.199699849192</v>
+        <v>1306.248421277161</v>
       </c>
       <c r="V14" t="n">
-        <v>1121.199699849192</v>
+        <v>1120.273805001747</v>
       </c>
       <c r="W14" t="n">
-        <v>1037.463978468425</v>
+        <v>912.0801023848838</v>
       </c>
       <c r="X14" t="n">
-        <v>1037.463978468425</v>
+        <v>683.3495491310356</v>
       </c>
       <c r="Y14" t="n">
-        <v>1037.463978468425</v>
+        <v>683.3495491310356</v>
       </c>
     </row>
     <row r="15">
@@ -5331,19 +5331,19 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>67.43721348305363</v>
+        <v>204.5424432356693</v>
       </c>
       <c r="C15" t="n">
-        <v>40.56122104109264</v>
+        <v>177.6664507937083</v>
       </c>
       <c r="D15" t="n">
-        <v>38.85003703625834</v>
+        <v>175.9552667888741</v>
       </c>
       <c r="E15" t="n">
-        <v>27.11763067533489</v>
+        <v>164.2228604279506</v>
       </c>
       <c r="F15" t="n">
-        <v>27.11763067533489</v>
+        <v>164.2228604279506</v>
       </c>
       <c r="G15" t="n">
         <v>27.11763067533489</v>
@@ -5358,19 +5358,19 @@
         <v>61.5451253905245</v>
       </c>
       <c r="K15" t="n">
-        <v>246.9928106217455</v>
+        <v>121.3021467125086</v>
       </c>
       <c r="L15" t="n">
-        <v>557.1997160441299</v>
+        <v>431.509052134893</v>
       </c>
       <c r="M15" t="n">
-        <v>892.7803956513991</v>
+        <v>431.509052134893</v>
       </c>
       <c r="N15" t="n">
-        <v>1228.361075258668</v>
+        <v>767.0897317421623</v>
       </c>
       <c r="O15" t="n">
-        <v>1355.881533766744</v>
+        <v>1102.670411349432</v>
       </c>
       <c r="P15" t="n">
         <v>1355.881533766744</v>
@@ -5379,28 +5379,28 @@
         <v>1355.881533766744</v>
       </c>
       <c r="R15" t="n">
-        <v>1278.356689813183</v>
+        <v>1278.459842207701</v>
       </c>
       <c r="S15" t="n">
-        <v>1113.111278354575</v>
+        <v>1113.214430749093</v>
       </c>
       <c r="T15" t="n">
-        <v>1059.778777661545</v>
+        <v>914.0048074198413</v>
       </c>
       <c r="U15" t="n">
-        <v>832.8715435658842</v>
+        <v>832.9746959604022</v>
       </c>
       <c r="V15" t="n">
-        <v>598.620300091485</v>
+        <v>744.6005751222249</v>
       </c>
       <c r="W15" t="n">
-        <v>346.1058084248183</v>
+        <v>492.0860834555581</v>
       </c>
       <c r="X15" t="n">
-        <v>148.4539551085199</v>
+        <v>285.5591848611356</v>
       </c>
       <c r="Y15" t="n">
-        <v>88.60264196839222</v>
+        <v>225.7078717210079</v>
       </c>
     </row>
     <row r="16">
@@ -5428,7 +5428,7 @@
         <v>44.40493256350916</v>
       </c>
       <c r="H16" t="n">
-        <v>29.19148118391024</v>
+        <v>29.19148118391025</v>
       </c>
       <c r="I16" t="n">
         <v>27.11763067533489</v>
@@ -5437,22 +5437,22 @@
         <v>99.10172026762899</v>
       </c>
       <c r="K16" t="n">
-        <v>112.3461660108594</v>
+        <v>226.2837685931502</v>
       </c>
       <c r="L16" t="n">
-        <v>185.0981117955586</v>
+        <v>442.0098822736103</v>
       </c>
       <c r="M16" t="n">
-        <v>302.2365651755484</v>
+        <v>529.3095081504463</v>
       </c>
       <c r="N16" t="n">
-        <v>535.5758308638929</v>
+        <v>762.6487738387907</v>
       </c>
       <c r="O16" t="n">
-        <v>746.6801960305843</v>
+        <v>830.7789711097212</v>
       </c>
       <c r="P16" t="n">
-        <v>781.7548682568488</v>
+        <v>865.8536433359857</v>
       </c>
       <c r="Q16" t="n">
         <v>865.8536433359857</v>
@@ -5501,10 +5501,10 @@
         <v>431.0735506405841</v>
       </c>
       <c r="F17" t="n">
-        <v>273.6398981717049</v>
+        <v>273.6398981717048</v>
       </c>
       <c r="G17" t="n">
-        <v>109.1146281059922</v>
+        <v>109.1146281059921</v>
       </c>
       <c r="H17" t="n">
         <v>27.11763067533489</v>
@@ -5516,22 +5516,22 @@
         <v>27.11763067533489</v>
       </c>
       <c r="K17" t="n">
-        <v>27.11763067533489</v>
+        <v>216.4443931010831</v>
       </c>
       <c r="L17" t="n">
-        <v>313.9632990051479</v>
+        <v>216.4443931010831</v>
       </c>
       <c r="M17" t="n">
-        <v>648.3466681233299</v>
+        <v>550.8277622192651</v>
       </c>
       <c r="N17" t="n">
-        <v>910.7734421797766</v>
+        <v>875.1046288445589</v>
       </c>
       <c r="O17" t="n">
-        <v>1170.850540561919</v>
+        <v>1135.181727226701</v>
       </c>
       <c r="P17" t="n">
-        <v>1355.881533766744</v>
+        <v>1320.212720431527</v>
       </c>
       <c r="Q17" t="n">
         <v>1355.881533766744</v>
@@ -5568,22 +5568,22 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>582.3940324948492</v>
+        <v>815.6041774231869</v>
       </c>
       <c r="C18" t="n">
-        <v>409.6409174166664</v>
+        <v>642.851062345004</v>
       </c>
       <c r="D18" t="n">
-        <v>262.0526107756103</v>
+        <v>495.262755703948</v>
       </c>
       <c r="E18" t="n">
-        <v>104.443081778465</v>
+        <v>495.262755703948</v>
       </c>
       <c r="F18" t="n">
-        <v>104.443081778465</v>
+        <v>350.3069657205648</v>
       </c>
       <c r="G18" t="n">
-        <v>104.443081778465</v>
+        <v>213.201735967949</v>
       </c>
       <c r="H18" t="n">
         <v>104.443081778465</v>
@@ -5604,40 +5604,40 @@
         <v>362.6983102826042</v>
       </c>
       <c r="N18" t="n">
-        <v>649.3857345018369</v>
+        <v>698.2789898898734</v>
       </c>
       <c r="O18" t="n">
-        <v>984.966414109106</v>
+        <v>1033.859669497143</v>
       </c>
       <c r="P18" t="n">
-        <v>1238.177536526419</v>
+        <v>1287.070791914456</v>
       </c>
       <c r="Q18" t="n">
         <v>1355.881533766744</v>
       </c>
       <c r="R18" t="n">
-        <v>1355.881533766744</v>
+        <v>1278.356689813183</v>
       </c>
       <c r="S18" t="n">
-        <v>1355.881533766744</v>
+        <v>1278.356689813183</v>
       </c>
       <c r="T18" t="n">
-        <v>1355.881533766744</v>
+        <v>1079.147066483932</v>
       </c>
       <c r="U18" t="n">
-        <v>1128.974299671084</v>
+        <v>1079.147066483932</v>
       </c>
       <c r="V18" t="n">
-        <v>894.7230561966844</v>
+        <v>1079.147066483932</v>
       </c>
       <c r="W18" t="n">
-        <v>749.4365836164096</v>
+        <v>826.6325748172652</v>
       </c>
       <c r="X18" t="n">
-        <v>749.4365836164096</v>
+        <v>826.6325748172652</v>
       </c>
       <c r="Y18" t="n">
-        <v>749.4365836164096</v>
+        <v>815.6041774231869</v>
       </c>
     </row>
     <row r="19">
@@ -5692,25 +5692,25 @@
         <v>393.9836153698788</v>
       </c>
       <c r="Q19" t="n">
-        <v>393.9836153698788</v>
+        <v>333.9128135979941</v>
       </c>
       <c r="R19" t="n">
-        <v>393.9836153698788</v>
+        <v>169.7756737368351</v>
       </c>
       <c r="S19" t="n">
-        <v>393.9836153698788</v>
+        <v>169.7756737368351</v>
       </c>
       <c r="T19" t="n">
-        <v>393.9836153698788</v>
+        <v>169.7756737368351</v>
       </c>
       <c r="U19" t="n">
-        <v>359.0295692548321</v>
+        <v>63.64271439417701</v>
       </c>
       <c r="V19" t="n">
-        <v>357.5125959916112</v>
+        <v>62.12574113095614</v>
       </c>
       <c r="W19" t="n">
-        <v>255.5422366675665</v>
+        <v>27.11763067533489</v>
       </c>
       <c r="X19" t="n">
         <v>27.11763067533489</v>
@@ -5726,19 +5726,19 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>787.0374108221777</v>
+        <v>787.0374108221774</v>
       </c>
       <c r="C20" t="n">
-        <v>670.3196854256199</v>
+        <v>670.3196854256196</v>
       </c>
       <c r="D20" t="n">
-        <v>564.0871751041574</v>
+        <v>564.087175104157</v>
       </c>
       <c r="E20" t="n">
-        <v>431.0735506405846</v>
+        <v>431.0735506405844</v>
       </c>
       <c r="F20" t="n">
-        <v>273.6398981717053</v>
+        <v>273.6398981717052</v>
       </c>
       <c r="G20" t="n">
         <v>109.1146281059921</v>
@@ -5750,22 +5750,22 @@
         <v>27.11763067533489</v>
       </c>
       <c r="J20" t="n">
-        <v>71.85530028082081</v>
+        <v>27.11763067533489</v>
       </c>
       <c r="K20" t="n">
-        <v>261.182062706569</v>
+        <v>190.3420379680717</v>
       </c>
       <c r="L20" t="n">
-        <v>548.027731036382</v>
+        <v>190.3420379680717</v>
       </c>
       <c r="M20" t="n">
-        <v>882.4111001545639</v>
+        <v>524.7254070862537</v>
       </c>
       <c r="N20" t="n">
-        <v>1206.687966779858</v>
+        <v>849.0022737115476</v>
       </c>
       <c r="O20" t="n">
-        <v>1294.110365298515</v>
+        <v>1109.07937209369</v>
       </c>
       <c r="P20" t="n">
         <v>1294.110365298515</v>
@@ -5789,13 +5789,13 @@
         <v>1278.004085295867</v>
       </c>
       <c r="W20" t="n">
-        <v>1177.907550483539</v>
+        <v>1177.90755048354</v>
       </c>
       <c r="X20" t="n">
-        <v>1057.274165034227</v>
+        <v>1057.274165034228</v>
       </c>
       <c r="Y20" t="n">
-        <v>920.6554537060604</v>
+        <v>920.6554537060607</v>
       </c>
     </row>
     <row r="21">
@@ -5805,25 +5805,25 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>331.0994002691601</v>
+        <v>199.8707457535177</v>
       </c>
       <c r="C21" t="n">
-        <v>331.0994002691601</v>
+        <v>27.11763067533489</v>
       </c>
       <c r="D21" t="n">
-        <v>213.201735967949</v>
+        <v>27.11763067533489</v>
       </c>
       <c r="E21" t="n">
-        <v>213.201735967949</v>
+        <v>27.11763067533489</v>
       </c>
       <c r="F21" t="n">
-        <v>213.201735967949</v>
+        <v>27.11763067533489</v>
       </c>
       <c r="G21" t="n">
-        <v>213.201735967949</v>
+        <v>27.11763067533489</v>
       </c>
       <c r="H21" t="n">
-        <v>104.443081778465</v>
+        <v>27.11763067533489</v>
       </c>
       <c r="I21" t="n">
         <v>27.11763067533489</v>
@@ -5832,19 +5832,19 @@
         <v>27.11763067533489</v>
       </c>
       <c r="K21" t="n">
-        <v>27.11763067533489</v>
+        <v>212.5653159065559</v>
       </c>
       <c r="L21" t="n">
-        <v>95.92837252762376</v>
+        <v>431.509052134893</v>
       </c>
       <c r="M21" t="n">
         <v>431.509052134893</v>
       </c>
       <c r="N21" t="n">
-        <v>767.0897317421621</v>
+        <v>767.0897317421623</v>
       </c>
       <c r="O21" t="n">
-        <v>1102.670411349431</v>
+        <v>1102.670411349432</v>
       </c>
       <c r="P21" t="n">
         <v>1355.881533766744</v>
@@ -5862,19 +5862,19 @@
         <v>1190.636122308136</v>
       </c>
       <c r="U21" t="n">
-        <v>1190.636122308136</v>
+        <v>963.7288882124753</v>
       </c>
       <c r="V21" t="n">
-        <v>956.3848788337368</v>
+        <v>729.4776447380762</v>
       </c>
       <c r="W21" t="n">
-        <v>703.8703871670701</v>
+        <v>476.9631530714095</v>
       </c>
       <c r="X21" t="n">
-        <v>703.8703871670701</v>
+        <v>405.5991815298672</v>
       </c>
       <c r="Y21" t="n">
-        <v>498.1419513907206</v>
+        <v>199.8707457535177</v>
       </c>
     </row>
     <row r="22">
@@ -5884,34 +5884,34 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>27.11763067533489</v>
+        <v>98.29654390294641</v>
       </c>
       <c r="C22" t="n">
-        <v>27.11763067533489</v>
+        <v>98.29654390294641</v>
       </c>
       <c r="D22" t="n">
-        <v>27.11763067533489</v>
+        <v>98.29654390294641</v>
       </c>
       <c r="E22" t="n">
-        <v>27.11763067533489</v>
+        <v>98.29654390294641</v>
       </c>
       <c r="F22" t="n">
-        <v>27.11763067533489</v>
+        <v>98.29654390294641</v>
       </c>
       <c r="G22" t="n">
-        <v>27.11763067533489</v>
+        <v>98.29654390294641</v>
       </c>
       <c r="H22" t="n">
-        <v>27.11763067533489</v>
+        <v>98.29654390294641</v>
       </c>
       <c r="I22" t="n">
-        <v>27.11763067533489</v>
+        <v>98.29654390294641</v>
       </c>
       <c r="J22" t="n">
         <v>27.11763067533489</v>
       </c>
       <c r="K22" t="n">
-        <v>40.36207641856534</v>
+        <v>40.36207641856535</v>
       </c>
       <c r="L22" t="n">
         <v>113.1140222032645</v>
@@ -5929,31 +5929,31 @@
         <v>393.9836153698788</v>
       </c>
       <c r="Q22" t="n">
-        <v>393.9836153698788</v>
+        <v>333.9128135979941</v>
       </c>
       <c r="R22" t="n">
-        <v>393.9836153698788</v>
+        <v>169.7756737368351</v>
       </c>
       <c r="S22" t="n">
-        <v>173.6457251676285</v>
+        <v>169.7756737368351</v>
       </c>
       <c r="T22" t="n">
-        <v>98.59676050922369</v>
+        <v>169.7756737368351</v>
       </c>
       <c r="U22" t="n">
-        <v>63.64271439417701</v>
+        <v>134.8216276217885</v>
       </c>
       <c r="V22" t="n">
-        <v>62.12574113095614</v>
+        <v>133.3046543585676</v>
       </c>
       <c r="W22" t="n">
-        <v>27.11763067533489</v>
+        <v>98.29654390294641</v>
       </c>
       <c r="X22" t="n">
-        <v>27.11763067533489</v>
+        <v>98.29654390294641</v>
       </c>
       <c r="Y22" t="n">
-        <v>27.11763067533489</v>
+        <v>98.29654390294641</v>
       </c>
     </row>
     <row r="23">
@@ -5963,16 +5963,16 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>787.0374108221774</v>
+        <v>787.0374108221773</v>
       </c>
       <c r="C23" t="n">
-        <v>670.3196854256195</v>
+        <v>670.3196854256196</v>
       </c>
       <c r="D23" t="n">
         <v>564.087175104157</v>
       </c>
       <c r="E23" t="n">
-        <v>431.0735506405842</v>
+        <v>431.0735506405844</v>
       </c>
       <c r="F23" t="n">
         <v>273.6398981717052</v>
@@ -5999,28 +5999,28 @@
         <v>882.4111001545639</v>
       </c>
       <c r="N23" t="n">
-        <v>1206.687966779858</v>
+        <v>1095.804435384602</v>
       </c>
       <c r="O23" t="n">
-        <v>1355.881533766744</v>
+        <v>1355.881533766745</v>
       </c>
       <c r="P23" t="n">
-        <v>1355.881533766744</v>
+        <v>1355.881533766745</v>
       </c>
       <c r="Q23" t="n">
-        <v>1355.881533766744</v>
+        <v>1355.881533766745</v>
       </c>
       <c r="R23" t="n">
-        <v>1355.881533766744</v>
+        <v>1355.881533766745</v>
       </c>
       <c r="S23" t="n">
-        <v>1355.881533766744</v>
+        <v>1355.881533766745</v>
       </c>
       <c r="T23" t="n">
-        <v>1355.881533766744</v>
+        <v>1355.881533766745</v>
       </c>
       <c r="U23" t="n">
-        <v>1355.881533766744</v>
+        <v>1355.881533766745</v>
       </c>
       <c r="V23" t="n">
         <v>1278.004085295867</v>
@@ -6032,7 +6032,7 @@
         <v>1057.274165034228</v>
       </c>
       <c r="Y23" t="n">
-        <v>920.6554537060608</v>
+        <v>920.6554537060607</v>
       </c>
     </row>
     <row r="24">
@@ -6042,19 +6042,19 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>973.2137064203323</v>
+        <v>796.6863370909151</v>
       </c>
       <c r="C24" t="n">
-        <v>800.4605913421494</v>
+        <v>796.6863370909151</v>
       </c>
       <c r="D24" t="n">
-        <v>652.8722847010932</v>
+        <v>649.0980304498589</v>
       </c>
       <c r="E24" t="n">
-        <v>495.262755703948</v>
+        <v>491.4885014527136</v>
       </c>
       <c r="F24" t="n">
-        <v>350.3069657205648</v>
+        <v>346.5327114693305</v>
       </c>
       <c r="G24" t="n">
         <v>213.201735967949</v>
@@ -6066,52 +6066,52 @@
         <v>27.11763067533489</v>
       </c>
       <c r="J24" t="n">
-        <v>27.11763067533489</v>
+        <v>61.54512539052451</v>
       </c>
       <c r="K24" t="n">
-        <v>27.11763067533489</v>
+        <v>246.9928106217455</v>
       </c>
       <c r="L24" t="n">
-        <v>27.11763067533489</v>
+        <v>557.1997160441299</v>
       </c>
       <c r="M24" t="n">
-        <v>362.6983102826041</v>
+        <v>892.7803956513992</v>
       </c>
       <c r="N24" t="n">
-        <v>698.2789898898733</v>
+        <v>1228.361075258669</v>
       </c>
       <c r="O24" t="n">
-        <v>1033.859669497142</v>
+        <v>1238.177536526419</v>
       </c>
       <c r="P24" t="n">
-        <v>1287.070791914455</v>
+        <v>1238.177536526419</v>
       </c>
       <c r="Q24" t="n">
-        <v>1355.881533766744</v>
+        <v>1355.881533766745</v>
       </c>
       <c r="R24" t="n">
-        <v>1355.881533766744</v>
+        <v>1355.881533766745</v>
       </c>
       <c r="S24" t="n">
-        <v>1355.881533766744</v>
+        <v>1190.636122308136</v>
       </c>
       <c r="T24" t="n">
-        <v>1355.881533766744</v>
+        <v>1190.636122308136</v>
       </c>
       <c r="U24" t="n">
-        <v>1355.881533766744</v>
+        <v>963.7288882124756</v>
       </c>
       <c r="V24" t="n">
-        <v>1355.881533766744</v>
+        <v>963.7288882124756</v>
       </c>
       <c r="W24" t="n">
-        <v>1355.881533766744</v>
+        <v>963.7288882124756</v>
       </c>
       <c r="X24" t="n">
-        <v>1345.984693318242</v>
+        <v>963.7288882124756</v>
       </c>
       <c r="Y24" t="n">
-        <v>1140.256257541893</v>
+        <v>963.7288882124756</v>
       </c>
     </row>
     <row r="25">
@@ -6121,13 +6121,13 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>27.11763067533489</v>
+        <v>175.5768470118997</v>
       </c>
       <c r="C25" t="n">
-        <v>27.11763067533489</v>
+        <v>175.5768470118997</v>
       </c>
       <c r="D25" t="n">
-        <v>27.11763067533489</v>
+        <v>175.5768470118997</v>
       </c>
       <c r="E25" t="n">
         <v>27.11763067533489</v>
@@ -6148,7 +6148,7 @@
         <v>27.11763067533489</v>
       </c>
       <c r="K25" t="n">
-        <v>40.36207641856534</v>
+        <v>40.36207641856535</v>
       </c>
       <c r="L25" t="n">
         <v>113.1140222032645</v>
@@ -6178,19 +6178,19 @@
         <v>393.9836153698788</v>
       </c>
       <c r="U25" t="n">
-        <v>359.0295692548322</v>
+        <v>212.1019307307418</v>
       </c>
       <c r="V25" t="n">
-        <v>357.5125959916113</v>
+        <v>210.584957467521</v>
       </c>
       <c r="W25" t="n">
-        <v>322.5044855359901</v>
+        <v>175.5768470118997</v>
       </c>
       <c r="X25" t="n">
-        <v>322.5044855359901</v>
+        <v>175.5768470118997</v>
       </c>
       <c r="Y25" t="n">
-        <v>209.0203493527933</v>
+        <v>175.5768470118997</v>
       </c>
     </row>
     <row r="26">
@@ -6200,37 +6200,37 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1528.421683007778</v>
+        <v>1528.421683007779</v>
       </c>
       <c r="C26" t="n">
-        <v>1300.522081324833</v>
+        <v>1300.522081324834</v>
       </c>
       <c r="D26" t="n">
-        <v>1083.107694716982</v>
+        <v>1083.107694716984</v>
       </c>
       <c r="E26" t="n">
-        <v>838.9121939670222</v>
+        <v>838.9121939670238</v>
       </c>
       <c r="F26" t="n">
-        <v>570.2966652117555</v>
+        <v>570.296665211757</v>
       </c>
       <c r="G26" t="n">
-        <v>294.5895188596546</v>
+        <v>294.5895188596562</v>
       </c>
       <c r="H26" t="n">
-        <v>101.4106451426112</v>
+        <v>101.4106451426114</v>
       </c>
       <c r="I26" t="n">
-        <v>57.94222293494779</v>
+        <v>57.94222293494781</v>
       </c>
       <c r="J26" t="n">
         <v>242.6307376531323</v>
       </c>
       <c r="K26" t="n">
-        <v>571.908345191579</v>
+        <v>571.9083451915791</v>
       </c>
       <c r="L26" t="n">
-        <v>998.7048586340906</v>
+        <v>998.7048586340917</v>
       </c>
       <c r="M26" t="n">
         <v>1473.039072864972</v>
@@ -6239,34 +6239,34 @@
         <v>1937.266784602964</v>
       </c>
       <c r="O26" t="n">
-        <v>2337.294728097805</v>
+        <v>2337.294728097806</v>
       </c>
       <c r="P26" t="n">
         <v>2662.276566415329</v>
       </c>
       <c r="Q26" t="n">
-        <v>2863.998579996256</v>
+        <v>2863.998579996257</v>
       </c>
       <c r="R26" t="n">
-        <v>2897.111146747389</v>
+        <v>2897.11114674739</v>
       </c>
       <c r="S26" t="n">
-        <v>2844.393325775955</v>
+        <v>2844.393325775956</v>
       </c>
       <c r="T26" t="n">
-        <v>2764.35706367067</v>
+        <v>2764.357063670672</v>
       </c>
       <c r="U26" t="n">
-        <v>2653.175187384283</v>
+        <v>2653.175187384284</v>
       </c>
       <c r="V26" t="n">
-        <v>2464.115862627018</v>
+        <v>2464.115862627019</v>
       </c>
       <c r="W26" t="n">
         <v>2252.837451528304</v>
       </c>
       <c r="X26" t="n">
-        <v>2021.022189792604</v>
+        <v>2021.022189792605</v>
       </c>
       <c r="Y26" t="n">
         <v>1773.22160217805</v>
@@ -6279,31 +6279,31 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>538.0565494803445</v>
+        <v>861.2458845255746</v>
       </c>
       <c r="C27" t="n">
-        <v>365.3034344021618</v>
+        <v>831.2851836017624</v>
       </c>
       <c r="D27" t="n">
-        <v>217.7151277611056</v>
+        <v>683.6968769607062</v>
       </c>
       <c r="E27" t="n">
-        <v>202.8980129183309</v>
+        <v>526.0873479635609</v>
       </c>
       <c r="F27" t="n">
-        <v>57.94222293494779</v>
+        <v>381.1315579801777</v>
       </c>
       <c r="G27" t="n">
-        <v>57.94222293494779</v>
+        <v>244.0263282275619</v>
       </c>
       <c r="H27" t="n">
-        <v>57.94222293494779</v>
+        <v>135.2676740380779</v>
       </c>
       <c r="I27" t="n">
-        <v>57.94222293494779</v>
+        <v>57.94222293494781</v>
       </c>
       <c r="J27" t="n">
-        <v>92.3697176501374</v>
+        <v>92.36971765013743</v>
       </c>
       <c r="K27" t="n">
         <v>277.8174028813584</v>
@@ -6327,28 +6327,28 @@
         <v>2150.870825565504</v>
       </c>
       <c r="R27" t="n">
-        <v>2150.870825565504</v>
+        <v>2073.345981611943</v>
       </c>
       <c r="S27" t="n">
-        <v>2030.237027538656</v>
+        <v>1908.100570153335</v>
       </c>
       <c r="T27" t="n">
-        <v>1831.027404209404</v>
+        <v>1725.839496791522</v>
       </c>
       <c r="U27" t="n">
-        <v>1604.120170113743</v>
+        <v>1498.932262695861</v>
       </c>
       <c r="V27" t="n">
-        <v>1369.868926639344</v>
+        <v>1264.681019221462</v>
       </c>
       <c r="W27" t="n">
-        <v>1117.354434972677</v>
+        <v>1154.958941709166</v>
       </c>
       <c r="X27" t="n">
-        <v>910.8275363782545</v>
+        <v>1091.224457269114</v>
       </c>
       <c r="Y27" t="n">
-        <v>705.099100601905</v>
+        <v>1028.288435647135</v>
       </c>
     </row>
     <row r="28">
@@ -6358,76 +6358,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>152.4096372882167</v>
+        <v>152.4096372882165</v>
       </c>
       <c r="C28" t="n">
-        <v>126.1752302999586</v>
+        <v>126.1752302999585</v>
       </c>
       <c r="D28" t="n">
-        <v>118.4569712073399</v>
+        <v>118.4569712073398</v>
       </c>
       <c r="E28" t="n">
-        <v>112.7901690251456</v>
+        <v>112.7901690251455</v>
       </c>
       <c r="F28" t="n">
-        <v>107.9472080180975</v>
+        <v>107.9472080180974</v>
       </c>
       <c r="G28" t="n">
-        <v>81.39894178682461</v>
+        <v>81.39894178682457</v>
       </c>
       <c r="H28" t="n">
-        <v>63.10078192537442</v>
+        <v>63.10078192537441</v>
       </c>
       <c r="I28" t="n">
-        <v>57.94222293494779</v>
+        <v>57.94222293494781</v>
       </c>
       <c r="J28" t="n">
         <v>126.9029897441795</v>
       </c>
       <c r="K28" t="n">
-        <v>280.0982806001085</v>
+        <v>280.0982806001086</v>
       </c>
       <c r="L28" t="n">
-        <v>444.1376807298315</v>
+        <v>492.8010714975063</v>
       </c>
       <c r="M28" t="n">
-        <v>531.4373066066674</v>
+        <v>580.1006973743423</v>
       </c>
       <c r="N28" t="n">
-        <v>621.8024043992509</v>
+        <v>670.4657951669258</v>
       </c>
       <c r="O28" t="n">
-        <v>689.9326016701814</v>
+        <v>829.8834467828794</v>
       </c>
       <c r="P28" t="n">
-        <v>864.9581190091444</v>
+        <v>864.958119009144</v>
       </c>
       <c r="Q28" t="n">
-        <v>946.0335713052187</v>
+        <v>946.0335713052184</v>
       </c>
       <c r="R28" t="n">
-        <v>924.6888455984304</v>
+        <v>924.68884559843</v>
       </c>
       <c r="S28" t="n">
-        <v>847.1433695505507</v>
+        <v>847.1433695505503</v>
       </c>
       <c r="T28" t="n">
-        <v>760.3427346199354</v>
+        <v>760.3427346199351</v>
       </c>
       <c r="U28" t="n">
-        <v>614.2068122185012</v>
+        <v>614.2068122185009</v>
       </c>
       <c r="V28" t="n">
-        <v>501.5079626688928</v>
+        <v>501.5079626688926</v>
       </c>
       <c r="W28" t="n">
-        <v>355.3179759268841</v>
+        <v>355.3179759268838</v>
       </c>
       <c r="X28" t="n">
-        <v>269.6857840890231</v>
+        <v>269.6857840890228</v>
       </c>
       <c r="Y28" t="n">
-        <v>191.5199418113045</v>
+        <v>191.5199418113043</v>
       </c>
     </row>
     <row r="29">
@@ -6437,37 +6437,37 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1528.421683007779</v>
+        <v>1528.421683007778</v>
       </c>
       <c r="C29" t="n">
-        <v>1300.522081324834</v>
+        <v>1300.522081324833</v>
       </c>
       <c r="D29" t="n">
-        <v>1083.107694716984</v>
+        <v>1083.107694716983</v>
       </c>
       <c r="E29" t="n">
-        <v>838.9121939670238</v>
+        <v>838.912193967023</v>
       </c>
       <c r="F29" t="n">
-        <v>570.296665211757</v>
+        <v>570.2966652117564</v>
       </c>
       <c r="G29" t="n">
-        <v>294.5895188596562</v>
+        <v>294.5895188596555</v>
       </c>
       <c r="H29" t="n">
-        <v>101.4106451426114</v>
+        <v>101.4106451426112</v>
       </c>
       <c r="I29" t="n">
         <v>57.94222293494779</v>
       </c>
       <c r="J29" t="n">
-        <v>242.6307376531323</v>
+        <v>242.6307376531321</v>
       </c>
       <c r="K29" t="n">
-        <v>571.9083451915792</v>
+        <v>571.908345191579</v>
       </c>
       <c r="L29" t="n">
-        <v>998.7048586340908</v>
+        <v>998.7048586340907</v>
       </c>
       <c r="M29" t="n">
         <v>1473.039072864971</v>
@@ -6485,7 +6485,7 @@
         <v>2863.998579996257</v>
       </c>
       <c r="R29" t="n">
-        <v>2897.111146747389</v>
+        <v>2897.11114674739</v>
       </c>
       <c r="S29" t="n">
         <v>2844.393325775955</v>
@@ -6494,19 +6494,19 @@
         <v>2764.357063670671</v>
       </c>
       <c r="U29" t="n">
-        <v>2653.175187384284</v>
+        <v>2653.175187384283</v>
       </c>
       <c r="V29" t="n">
         <v>2464.115862627018</v>
       </c>
       <c r="W29" t="n">
-        <v>2252.837451528304</v>
+        <v>2252.837451528303</v>
       </c>
       <c r="X29" t="n">
         <v>2021.022189792604</v>
       </c>
       <c r="Y29" t="n">
-        <v>1773.22160217805</v>
+        <v>1773.221602178049</v>
       </c>
     </row>
     <row r="30">
@@ -6516,25 +6516,25 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>921.8221785116967</v>
+        <v>701.5049204037649</v>
       </c>
       <c r="C30" t="n">
-        <v>749.069063433514</v>
+        <v>645.201078309148</v>
       </c>
       <c r="D30" t="n">
-        <v>601.4807567924579</v>
+        <v>497.6127716680919</v>
       </c>
       <c r="E30" t="n">
-        <v>443.8712277953126</v>
+        <v>340.0032426709466</v>
       </c>
       <c r="F30" t="n">
-        <v>298.9154378119295</v>
+        <v>195.0474526875635</v>
       </c>
       <c r="G30" t="n">
-        <v>244.0263282275619</v>
+        <v>57.94222293494779</v>
       </c>
       <c r="H30" t="n">
-        <v>135.2676740380779</v>
+        <v>57.94222293494779</v>
       </c>
       <c r="I30" t="n">
         <v>57.94222293494779</v>
@@ -6564,28 +6564,28 @@
         <v>2150.870825565504</v>
       </c>
       <c r="R30" t="n">
-        <v>2150.870825565504</v>
+        <v>2073.345981611943</v>
       </c>
       <c r="S30" t="n">
-        <v>2128.417828261267</v>
+        <v>1908.100570153335</v>
       </c>
       <c r="T30" t="n">
-        <v>2072.000619086386</v>
+        <v>1708.890946824083</v>
       </c>
       <c r="U30" t="n">
-        <v>1987.885799145095</v>
+        <v>1481.983712728422</v>
       </c>
       <c r="V30" t="n">
-        <v>1753.634555670696</v>
+        <v>1247.732469254023</v>
       </c>
       <c r="W30" t="n">
-        <v>1501.120064004029</v>
+        <v>1138.010391741727</v>
       </c>
       <c r="X30" t="n">
-        <v>1294.593165409607</v>
+        <v>931.4834931473043</v>
       </c>
       <c r="Y30" t="n">
-        <v>1088.864729633257</v>
+        <v>868.5474715253254</v>
       </c>
     </row>
     <row r="31">
@@ -6595,25 +6595,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>152.4096372882165</v>
+        <v>152.4096372882163</v>
       </c>
       <c r="C31" t="n">
-        <v>126.1752302999584</v>
+        <v>126.1752302999583</v>
       </c>
       <c r="D31" t="n">
-        <v>118.4569712073398</v>
+        <v>118.4569712073396</v>
       </c>
       <c r="E31" t="n">
-        <v>112.7901690251455</v>
+        <v>112.7901690251454</v>
       </c>
       <c r="F31" t="n">
         <v>107.9472080180974</v>
       </c>
       <c r="G31" t="n">
-        <v>81.39894178682455</v>
+        <v>81.39894178682451</v>
       </c>
       <c r="H31" t="n">
-        <v>63.10078192537439</v>
+        <v>63.10078192537437</v>
       </c>
       <c r="I31" t="n">
         <v>57.94222293494779</v>
@@ -6631,40 +6631,40 @@
         <v>440.1498522616437</v>
       </c>
       <c r="N31" t="n">
-        <v>530.5149500542271</v>
+        <v>621.80240439925</v>
       </c>
       <c r="O31" t="n">
-        <v>689.9326016701809</v>
+        <v>829.8834467828791</v>
       </c>
       <c r="P31" t="n">
-        <v>864.958119009144</v>
+        <v>864.9581190091436</v>
       </c>
       <c r="Q31" t="n">
-        <v>946.0335713052184</v>
+        <v>946.0335713052181</v>
       </c>
       <c r="R31" t="n">
-        <v>924.68884559843</v>
+        <v>924.6888455984297</v>
       </c>
       <c r="S31" t="n">
-        <v>847.1433695505503</v>
+        <v>847.14336955055</v>
       </c>
       <c r="T31" t="n">
-        <v>760.3427346199351</v>
+        <v>760.3427346199348</v>
       </c>
       <c r="U31" t="n">
-        <v>614.2068122185009</v>
+        <v>614.2068122185007</v>
       </c>
       <c r="V31" t="n">
-        <v>501.5079626688926</v>
+        <v>501.5079626688923</v>
       </c>
       <c r="W31" t="n">
-        <v>355.3179759268838</v>
+        <v>355.3179759268835</v>
       </c>
       <c r="X31" t="n">
-        <v>269.6857840890228</v>
+        <v>269.6857840890226</v>
       </c>
       <c r="Y31" t="n">
-        <v>191.5199418113043</v>
+        <v>191.5199418113041</v>
       </c>
     </row>
     <row r="32">
@@ -6674,31 +6674,31 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1528.421683007778</v>
+        <v>1528.421683007779</v>
       </c>
       <c r="C32" t="n">
-        <v>1300.522081324833</v>
+        <v>1300.522081324834</v>
       </c>
       <c r="D32" t="n">
-        <v>1083.107694716983</v>
+        <v>1083.107694716984</v>
       </c>
       <c r="E32" t="n">
-        <v>838.9121939670232</v>
+        <v>838.9121939670235</v>
       </c>
       <c r="F32" t="n">
-        <v>570.2966652117565</v>
+        <v>570.2966652117568</v>
       </c>
       <c r="G32" t="n">
-        <v>294.5895188596556</v>
+        <v>294.589518859656</v>
       </c>
       <c r="H32" t="n">
-        <v>101.4106451426112</v>
+        <v>101.4106451426114</v>
       </c>
       <c r="I32" t="n">
         <v>57.94222293494779</v>
       </c>
       <c r="J32" t="n">
-        <v>242.6307376531323</v>
+        <v>242.6307376531324</v>
       </c>
       <c r="K32" t="n">
         <v>571.9083451915792</v>
@@ -6713,22 +6713,22 @@
         <v>1937.266784602964</v>
       </c>
       <c r="O32" t="n">
-        <v>2337.294728097805</v>
+        <v>2337.294728097806</v>
       </c>
       <c r="P32" t="n">
         <v>2662.276566415329</v>
       </c>
       <c r="Q32" t="n">
-        <v>2863.998579996256</v>
+        <v>2863.998579996257</v>
       </c>
       <c r="R32" t="n">
-        <v>2897.111146747389</v>
+        <v>2897.11114674739</v>
       </c>
       <c r="S32" t="n">
         <v>2844.393325775955</v>
       </c>
       <c r="T32" t="n">
-        <v>2764.35706367067</v>
+        <v>2764.357063670671</v>
       </c>
       <c r="U32" t="n">
         <v>2653.175187384283</v>
@@ -6743,7 +6743,7 @@
         <v>2021.022189792604</v>
       </c>
       <c r="Y32" t="n">
-        <v>1773.221602178049</v>
+        <v>1773.22160217805</v>
       </c>
     </row>
     <row r="33">
@@ -6753,16 +6753,16 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>680.8489636347151</v>
+        <v>415.9200920950238</v>
       </c>
       <c r="C33" t="n">
-        <v>508.0958485565324</v>
+        <v>365.3034344021618</v>
       </c>
       <c r="D33" t="n">
-        <v>360.5075419154762</v>
+        <v>217.7151277611056</v>
       </c>
       <c r="E33" t="n">
-        <v>202.8980129183309</v>
+        <v>60.1055987639603</v>
       </c>
       <c r="F33" t="n">
         <v>57.94222293494779</v>
@@ -6801,28 +6801,28 @@
         <v>2150.870825565504</v>
       </c>
       <c r="R33" t="n">
-        <v>2150.870825565504</v>
+        <v>2073.345981611943</v>
       </c>
       <c r="S33" t="n">
-        <v>2128.417828261267</v>
+        <v>1908.100570153335</v>
       </c>
       <c r="T33" t="n">
-        <v>1973.819818363774</v>
+        <v>1708.890946824083</v>
       </c>
       <c r="U33" t="n">
-        <v>1746.912584268114</v>
+        <v>1481.983712728422</v>
       </c>
       <c r="V33" t="n">
-        <v>1512.661340793714</v>
+        <v>1247.732469254023</v>
       </c>
       <c r="W33" t="n">
-        <v>1260.146849127048</v>
+        <v>995.2179775873564</v>
       </c>
       <c r="X33" t="n">
-        <v>1053.619950532625</v>
+        <v>788.6910789929339</v>
       </c>
       <c r="Y33" t="n">
-        <v>847.8915147562756</v>
+        <v>582.9626432165843</v>
       </c>
     </row>
     <row r="34">
@@ -6844,13 +6844,13 @@
         <v>112.7901690251454</v>
       </c>
       <c r="F34" t="n">
-        <v>107.9472080180973</v>
+        <v>107.9472080180974</v>
       </c>
       <c r="G34" t="n">
-        <v>81.39894178682449</v>
+        <v>81.39894178682451</v>
       </c>
       <c r="H34" t="n">
-        <v>63.10078192537436</v>
+        <v>63.10078192537437</v>
       </c>
       <c r="I34" t="n">
         <v>57.94222293494779</v>
@@ -6862,19 +6862,19 @@
         <v>280.0982806001086</v>
       </c>
       <c r="L34" t="n">
-        <v>444.1376807298305</v>
+        <v>352.8502263848077</v>
       </c>
       <c r="M34" t="n">
-        <v>531.4373066066665</v>
+        <v>580.1006973743424</v>
       </c>
       <c r="N34" t="n">
-        <v>621.80240439925</v>
+        <v>810.4166402796245</v>
       </c>
       <c r="O34" t="n">
-        <v>689.9326016701805</v>
+        <v>878.546837550555</v>
       </c>
       <c r="P34" t="n">
-        <v>864.9581190091436</v>
+        <v>913.6215097768195</v>
       </c>
       <c r="Q34" t="n">
         <v>946.0335713052181</v>
@@ -6911,10 +6911,10 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>973.1799653781349</v>
+        <v>973.1799653781347</v>
       </c>
       <c r="C35" t="n">
-        <v>826.6550988925513</v>
+        <v>826.6550988925515</v>
       </c>
       <c r="D35" t="n">
         <v>690.615447482063</v>
@@ -6923,7 +6923,7 @@
         <v>527.7946819294644</v>
       </c>
       <c r="F35" t="n">
-        <v>340.5538883715593</v>
+        <v>340.5538883715594</v>
       </c>
       <c r="G35" t="n">
         <v>146.2214772168202</v>
@@ -6935,16 +6935,16 @@
         <v>34.41733869713715</v>
       </c>
       <c r="J35" t="n">
-        <v>79.15500830262306</v>
+        <v>79.15500830262337</v>
       </c>
       <c r="K35" t="n">
-        <v>268.4817707283713</v>
+        <v>268.4817707283716</v>
       </c>
       <c r="L35" t="n">
-        <v>555.3274390581844</v>
+        <v>555.3274390581846</v>
       </c>
       <c r="M35" t="n">
-        <v>889.7108081763663</v>
+        <v>889.7108081763665</v>
       </c>
       <c r="N35" t="n">
         <v>1213.98767480166</v>
@@ -6990,22 +6990,22 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>512.3682894135213</v>
+        <v>766.0827335863887</v>
       </c>
       <c r="C36" t="n">
-        <v>339.6151743353386</v>
+        <v>593.3296185082058</v>
       </c>
       <c r="D36" t="n">
-        <v>192.0268676942825</v>
+        <v>445.7413118671496</v>
       </c>
       <c r="E36" t="n">
-        <v>34.41733869713715</v>
+        <v>288.1317828700044</v>
       </c>
       <c r="F36" t="n">
-        <v>34.41733869713715</v>
+        <v>143.1759928866212</v>
       </c>
       <c r="G36" t="n">
-        <v>34.41733869713715</v>
+        <v>143.1759928866212</v>
       </c>
       <c r="H36" t="n">
         <v>34.41733869713715</v>
@@ -7017,19 +7017,19 @@
         <v>34.41733869713715</v>
       </c>
       <c r="K36" t="n">
-        <v>34.41733869713715</v>
+        <v>219.8650239283581</v>
       </c>
       <c r="L36" t="n">
-        <v>290.984044533741</v>
+        <v>530.0719293507425</v>
       </c>
       <c r="M36" t="n">
-        <v>705.7810657219081</v>
+        <v>944.8689505389095</v>
       </c>
       <c r="N36" t="n">
-        <v>1131.69563209898</v>
+        <v>1370.783516915982</v>
       </c>
       <c r="O36" t="n">
-        <v>1467.655812439544</v>
+        <v>1706.743697256546</v>
       </c>
       <c r="P36" t="n">
         <v>1720.866934856857</v>
@@ -7041,25 +7041,25 @@
         <v>1720.866934856857</v>
       </c>
       <c r="S36" t="n">
-        <v>1720.866934856857</v>
+        <v>1555.621523398249</v>
       </c>
       <c r="T36" t="n">
-        <v>1638.29659302102</v>
+        <v>1555.621523398249</v>
       </c>
       <c r="U36" t="n">
-        <v>1411.389358925359</v>
+        <v>1552.88143865432</v>
       </c>
       <c r="V36" t="n">
-        <v>1177.13811545096</v>
+        <v>1318.630195179921</v>
       </c>
       <c r="W36" t="n">
-        <v>924.6236237842934</v>
+        <v>1178.338067957161</v>
       </c>
       <c r="X36" t="n">
-        <v>718.0967251898709</v>
+        <v>971.8111693627383</v>
       </c>
       <c r="Y36" t="n">
-        <v>512.3682894135213</v>
+        <v>766.0827335863887</v>
       </c>
     </row>
     <row r="37">
@@ -7117,22 +7117,22 @@
         <v>401.2833233916811</v>
       </c>
       <c r="R37" t="n">
-        <v>401.2833233916811</v>
+        <v>237.1461835305221</v>
       </c>
       <c r="S37" t="n">
-        <v>401.2833233916811</v>
+        <v>237.1461835305221</v>
       </c>
       <c r="T37" t="n">
-        <v>395.8574236584275</v>
+        <v>199.5753484386029</v>
       </c>
       <c r="U37" t="n">
-        <v>134.8141612345302</v>
+        <v>134.8141612345304</v>
       </c>
       <c r="V37" t="n">
-        <v>103.4900468822835</v>
+        <v>103.4900468822836</v>
       </c>
       <c r="W37" t="n">
-        <v>38.67479533763645</v>
+        <v>38.6747953376365</v>
       </c>
       <c r="X37" t="n">
         <v>34.41733869713715</v>
@@ -7148,19 +7148,19 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>973.1799653781345</v>
+        <v>973.1799653781353</v>
       </c>
       <c r="C38" t="n">
-        <v>826.6550988925512</v>
+        <v>826.6550988925519</v>
       </c>
       <c r="D38" t="n">
-        <v>690.6154474820628</v>
+        <v>690.6154474820637</v>
       </c>
       <c r="E38" t="n">
-        <v>527.7946819294642</v>
+        <v>527.7946819294652</v>
       </c>
       <c r="F38" t="n">
-        <v>340.5538883715592</v>
+        <v>340.5538883715601</v>
       </c>
       <c r="G38" t="n">
         <v>146.2214772168202</v>
@@ -7178,10 +7178,10 @@
         <v>268.4817707283712</v>
       </c>
       <c r="L38" t="n">
-        <v>555.3274390581842</v>
+        <v>555.3274390581844</v>
       </c>
       <c r="M38" t="n">
-        <v>889.7108081763661</v>
+        <v>889.7108081763662</v>
       </c>
       <c r="N38" t="n">
         <v>1213.98767480166</v>
@@ -7205,16 +7205,16 @@
         <v>1720.866934856857</v>
       </c>
       <c r="U38" t="n">
-        <v>1691.059793767831</v>
+        <v>1691.059793767832</v>
       </c>
       <c r="V38" t="n">
-        <v>1583.375204207927</v>
+        <v>1583.375204207928</v>
       </c>
       <c r="W38" t="n">
-        <v>1453.471528306574</v>
+        <v>1453.471528306575</v>
       </c>
       <c r="X38" t="n">
-        <v>1303.031001768236</v>
+        <v>1303.031001768237</v>
       </c>
       <c r="Y38" t="n">
         <v>1136.605149351044</v>
@@ -7227,22 +7227,22 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>794.4293091495203</v>
+        <v>143.1759928866212</v>
       </c>
       <c r="C39" t="n">
-        <v>621.6761940713375</v>
+        <v>143.1759928866212</v>
       </c>
       <c r="D39" t="n">
-        <v>474.0878874302813</v>
+        <v>143.1759928866212</v>
       </c>
       <c r="E39" t="n">
-        <v>316.478358433136</v>
+        <v>143.1759928866212</v>
       </c>
       <c r="F39" t="n">
-        <v>171.5225684497529</v>
+        <v>143.1759928866212</v>
       </c>
       <c r="G39" t="n">
-        <v>34.41733869713715</v>
+        <v>143.1759928866212</v>
       </c>
       <c r="H39" t="n">
         <v>34.41733869713715</v>
@@ -7254,49 +7254,49 @@
         <v>34.41733869713715</v>
       </c>
       <c r="K39" t="n">
-        <v>219.8650239283581</v>
+        <v>34.41733869713715</v>
       </c>
       <c r="L39" t="n">
-        <v>530.0719293507425</v>
+        <v>173.2800472934154</v>
       </c>
       <c r="M39" t="n">
-        <v>944.8689505389095</v>
+        <v>588.0770684815825</v>
       </c>
       <c r="N39" t="n">
-        <v>1370.783516915982</v>
+        <v>1013.991634858655</v>
       </c>
       <c r="O39" t="n">
-        <v>1706.743697256546</v>
+        <v>1349.951815199219</v>
       </c>
       <c r="P39" t="n">
-        <v>1720.866934856857</v>
+        <v>1603.162937616532</v>
       </c>
       <c r="Q39" t="n">
         <v>1720.866934856857</v>
       </c>
       <c r="R39" t="n">
-        <v>1720.866934856857</v>
+        <v>1643.342090903296</v>
       </c>
       <c r="S39" t="n">
-        <v>1720.866934856857</v>
+        <v>1478.096679444688</v>
       </c>
       <c r="T39" t="n">
-        <v>1720.866934856857</v>
+        <v>1278.887056115436</v>
       </c>
       <c r="U39" t="n">
-        <v>1718.126850112928</v>
+        <v>1051.979822019775</v>
       </c>
       <c r="V39" t="n">
-        <v>1626.24168630852</v>
+        <v>817.7285785453762</v>
       </c>
       <c r="W39" t="n">
-        <v>1373.727194641853</v>
+        <v>565.2140868787095</v>
       </c>
       <c r="X39" t="n">
-        <v>1167.20029604743</v>
+        <v>358.687188284287</v>
       </c>
       <c r="Y39" t="n">
-        <v>961.4718602710808</v>
+        <v>152.9587525079375</v>
       </c>
     </row>
     <row r="40">
@@ -7360,19 +7360,19 @@
         <v>401.2833233916811</v>
       </c>
       <c r="T40" t="n">
-        <v>395.8574236584274</v>
+        <v>395.8574236584275</v>
       </c>
       <c r="U40" t="n">
-        <v>331.0962364543549</v>
+        <v>331.096236454355</v>
       </c>
       <c r="V40" t="n">
-        <v>299.7721221021081</v>
+        <v>299.7721221021083</v>
       </c>
       <c r="W40" t="n">
-        <v>234.956870557461</v>
+        <v>234.9568705574613</v>
       </c>
       <c r="X40" t="n">
-        <v>230.6994139169617</v>
+        <v>34.41733869713715</v>
       </c>
       <c r="Y40" t="n">
         <v>34.41733869713715</v>
@@ -7385,19 +7385,19 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>981.538593259272</v>
+        <v>981.5385932592717</v>
       </c>
       <c r="C41" t="n">
-        <v>833.6752536816109</v>
+        <v>833.6752536816108</v>
       </c>
       <c r="D41" t="n">
         <v>696.2971291790452</v>
       </c>
       <c r="E41" t="n">
-        <v>532.137890534369</v>
+        <v>532.1378905343693</v>
       </c>
       <c r="F41" t="n">
-        <v>343.5586238843866</v>
+        <v>343.5586238843867</v>
       </c>
       <c r="G41" t="n">
         <v>147.8877396375697</v>
@@ -7454,7 +7454,7 @@
         <v>1314.066575833529</v>
       </c>
       <c r="Y41" t="n">
-        <v>1146.302250324259</v>
+        <v>1146.302250324258</v>
       </c>
     </row>
     <row r="42">
@@ -7464,46 +7464,46 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>444.2855465613993</v>
+        <v>34.74512802580917</v>
       </c>
       <c r="C42" t="n">
-        <v>271.5324314832165</v>
+        <v>34.74512802580917</v>
       </c>
       <c r="D42" t="n">
-        <v>271.5324314832165</v>
+        <v>34.74512802580917</v>
       </c>
       <c r="E42" t="n">
-        <v>113.9229024860712</v>
+        <v>34.74512802580917</v>
       </c>
       <c r="F42" t="n">
-        <v>113.9229024860712</v>
+        <v>34.74512802580917</v>
       </c>
       <c r="G42" t="n">
-        <v>113.9229024860712</v>
+        <v>34.74512802580917</v>
       </c>
       <c r="H42" t="n">
-        <v>112.0705791289393</v>
+        <v>34.74512802580917</v>
       </c>
       <c r="I42" t="n">
         <v>34.74512802580917</v>
       </c>
       <c r="J42" t="n">
-        <v>34.74512802580917</v>
+        <v>69.17262274099879</v>
       </c>
       <c r="K42" t="n">
-        <v>34.74512802580917</v>
+        <v>254.6203079722198</v>
       </c>
       <c r="L42" t="n">
-        <v>344.9520334481936</v>
+        <v>564.8272133946042</v>
       </c>
       <c r="M42" t="n">
-        <v>759.7490546363606</v>
+        <v>979.6242345827714</v>
       </c>
       <c r="N42" t="n">
-        <v>1189.720013955749</v>
+        <v>1401.296220949895</v>
       </c>
       <c r="O42" t="n">
-        <v>1525.680194296313</v>
+        <v>1737.256401290459</v>
       </c>
       <c r="P42" t="n">
         <v>1737.256401290459</v>
@@ -7512,28 +7512,28 @@
         <v>1737.256401290459</v>
       </c>
       <c r="R42" t="n">
-        <v>1737.256401290459</v>
+        <v>1659.731557336898</v>
       </c>
       <c r="S42" t="n">
-        <v>1737.256401290459</v>
+        <v>1494.486145878289</v>
       </c>
       <c r="T42" t="n">
-        <v>1737.256401290459</v>
+        <v>1295.276522549038</v>
       </c>
       <c r="U42" t="n">
-        <v>1510.349167194798</v>
+        <v>1100.808748659207</v>
       </c>
       <c r="V42" t="n">
-        <v>1276.097923720399</v>
+        <v>866.5575051848083</v>
       </c>
       <c r="W42" t="n">
-        <v>1023.583432053732</v>
+        <v>614.0430135181416</v>
       </c>
       <c r="X42" t="n">
-        <v>817.0565334593093</v>
+        <v>407.5161149237192</v>
       </c>
       <c r="Y42" t="n">
-        <v>611.3280976829598</v>
+        <v>201.7876791473696</v>
       </c>
     </row>
     <row r="43">
@@ -7543,25 +7543,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>34.74512802580917</v>
+        <v>182.6961011706064</v>
       </c>
       <c r="C43" t="n">
-        <v>34.74512802580917</v>
+        <v>182.6961011706064</v>
       </c>
       <c r="D43" t="n">
-        <v>34.74512802580917</v>
+        <v>182.6961011706064</v>
       </c>
       <c r="E43" t="n">
-        <v>34.74512802580917</v>
+        <v>182.6961011706064</v>
       </c>
       <c r="F43" t="n">
-        <v>34.74512802580917</v>
+        <v>182.6961011706064</v>
       </c>
       <c r="G43" t="n">
-        <v>34.74512802580917</v>
+        <v>182.6961011706064</v>
       </c>
       <c r="H43" t="n">
-        <v>34.74512802580917</v>
+        <v>182.6961011706064</v>
       </c>
       <c r="I43" t="n">
         <v>34.74512802580917</v>
@@ -7600,19 +7600,19 @@
         <v>394.846739895022</v>
       </c>
       <c r="U43" t="n">
-        <v>139.1573698394346</v>
+        <v>328.7470795988721</v>
       </c>
       <c r="V43" t="n">
-        <v>106.4947823951105</v>
+        <v>296.084492154548</v>
       </c>
       <c r="W43" t="n">
-        <v>40.34105775838595</v>
+        <v>229.9307675178235</v>
       </c>
       <c r="X43" t="n">
-        <v>34.74512802580917</v>
+        <v>224.3348377852467</v>
       </c>
       <c r="Y43" t="n">
-        <v>34.74512802580917</v>
+        <v>182.6961011706064</v>
       </c>
     </row>
     <row r="44">
@@ -7670,7 +7670,7 @@
         <v>1721.194724185529</v>
       </c>
       <c r="R44" t="n">
-        <v>1721.194724185529</v>
+        <v>1737.256401290459</v>
       </c>
       <c r="S44" t="n">
         <v>1737.256401290459</v>
@@ -7701,46 +7701,46 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>657.6518687255766</v>
+        <v>562.2242047505238</v>
       </c>
       <c r="C45" t="n">
-        <v>484.8987536473938</v>
+        <v>562.2242047505238</v>
       </c>
       <c r="D45" t="n">
-        <v>337.3104470063377</v>
+        <v>414.6358981094677</v>
       </c>
       <c r="E45" t="n">
-        <v>179.7009180091923</v>
+        <v>257.0263691123224</v>
       </c>
       <c r="F45" t="n">
-        <v>34.74512802580917</v>
+        <v>112.0705791289393</v>
       </c>
       <c r="G45" t="n">
-        <v>34.74512802580917</v>
+        <v>112.0705791289393</v>
       </c>
       <c r="H45" t="n">
-        <v>34.74512802580917</v>
+        <v>112.0705791289393</v>
       </c>
       <c r="I45" t="n">
         <v>34.74512802580917</v>
       </c>
       <c r="J45" t="n">
-        <v>69.17262274099879</v>
+        <v>34.74512802580917</v>
       </c>
       <c r="K45" t="n">
-        <v>254.6203079722198</v>
+        <v>34.74512802580917</v>
       </c>
       <c r="L45" t="n">
-        <v>564.8272133946042</v>
+        <v>344.9520334481936</v>
       </c>
       <c r="M45" t="n">
-        <v>718.1141392131932</v>
+        <v>759.7490546363606</v>
       </c>
       <c r="N45" t="n">
-        <v>1148.085098532582</v>
+        <v>1189.720013955749</v>
       </c>
       <c r="O45" t="n">
-        <v>1484.045278873146</v>
+        <v>1525.680194296313</v>
       </c>
       <c r="P45" t="n">
         <v>1737.256401290459</v>
@@ -7752,25 +7752,25 @@
         <v>1737.256401290459</v>
       </c>
       <c r="S45" t="n">
-        <v>1737.256401290459</v>
+        <v>1572.01098983185</v>
       </c>
       <c r="T45" t="n">
-        <v>1727.794047194981</v>
+        <v>1572.01098983185</v>
       </c>
       <c r="U45" t="n">
-        <v>1723.715489358975</v>
+        <v>1567.932431995844</v>
       </c>
       <c r="V45" t="n">
-        <v>1489.464245884576</v>
+        <v>1333.681188521445</v>
       </c>
       <c r="W45" t="n">
-        <v>1236.949754217909</v>
+        <v>1081.166696854778</v>
       </c>
       <c r="X45" t="n">
-        <v>1030.422855623487</v>
+        <v>934.9951916484338</v>
       </c>
       <c r="Y45" t="n">
-        <v>824.6944198471371</v>
+        <v>729.2667558720842</v>
       </c>
     </row>
     <row r="46">
@@ -7831,16 +7831,16 @@
         <v>401.611112720353</v>
       </c>
       <c r="S46" t="n">
-        <v>401.611112720353</v>
+        <v>212.0214029609155</v>
       </c>
       <c r="T46" t="n">
-        <v>394.846739895022</v>
+        <v>205.2570301355845</v>
       </c>
       <c r="U46" t="n">
-        <v>328.7470795988721</v>
+        <v>139.1573698394346</v>
       </c>
       <c r="V46" t="n">
-        <v>296.084492154548</v>
+        <v>106.4947823951104</v>
       </c>
       <c r="W46" t="n">
         <v>40.34105775838592</v>
@@ -8690,10 +8690,10 @@
         <v>175.8604797789567</v>
       </c>
       <c r="K11" t="n">
-        <v>337.1112290740114</v>
+        <v>145.8720751086091</v>
       </c>
       <c r="L11" t="n">
-        <v>434.3676631324684</v>
+        <v>264.3081372308905</v>
       </c>
       <c r="M11" t="n">
         <v>467.4940748325458</v>
@@ -8702,10 +8702,10 @@
         <v>454.8408013884635</v>
       </c>
       <c r="O11" t="n">
-        <v>221.6335017824621</v>
+        <v>396.0321885132552</v>
       </c>
       <c r="P11" t="n">
-        <v>147.7706633621546</v>
+        <v>334.6706564983419</v>
       </c>
       <c r="Q11" t="n">
         <v>220.8075902863009</v>
@@ -8769,25 +8769,25 @@
         <v>96.35942956696496</v>
       </c>
       <c r="K12" t="n">
-        <v>87.72295232013131</v>
+        <v>275.0438464930818</v>
       </c>
       <c r="L12" t="n">
-        <v>72.33365060813857</v>
+        <v>385.6739591155975</v>
       </c>
       <c r="M12" t="n">
-        <v>404.3167596526283</v>
+        <v>228.930167345554</v>
       </c>
       <c r="N12" t="n">
-        <v>391.8559516727273</v>
+        <v>391.8559516727274</v>
       </c>
       <c r="O12" t="n">
-        <v>409.2334779737635</v>
+        <v>409.2334779737636</v>
       </c>
       <c r="P12" t="n">
-        <v>331.2012793855346</v>
+        <v>75.43246886299639</v>
       </c>
       <c r="Q12" t="n">
-        <v>169.0932525907004</v>
+        <v>99.58745273990355</v>
       </c>
       <c r="R12" t="n">
         <v>47.34253660377365</v>
@@ -8924,7 +8924,7 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>175.8604797789567</v>
+        <v>130.6709145208901</v>
       </c>
       <c r="K14" t="n">
         <v>145.8720751086091</v>
@@ -8933,7 +8933,7 @@
         <v>434.3676631324684</v>
       </c>
       <c r="M14" t="n">
-        <v>467.4940748325458</v>
+        <v>342.6241141890345</v>
       </c>
       <c r="N14" t="n">
         <v>454.8408013884635</v>
@@ -8942,10 +8942,10 @@
         <v>396.0321885132552</v>
       </c>
       <c r="P14" t="n">
-        <v>227.0062502616414</v>
+        <v>334.6706564983419</v>
       </c>
       <c r="Q14" t="n">
-        <v>158.412470621423</v>
+        <v>220.8075902863009</v>
       </c>
       <c r="R14" t="n">
         <v>68.34507666790174</v>
@@ -9006,22 +9006,22 @@
         <v>131.1346767540252</v>
       </c>
       <c r="K15" t="n">
-        <v>275.0438464930818</v>
+        <v>148.083579918095</v>
       </c>
       <c r="L15" t="n">
         <v>385.6739591155975</v>
       </c>
       <c r="M15" t="n">
-        <v>404.3167596526283</v>
+        <v>65.34637621094224</v>
       </c>
       <c r="N15" t="n">
-        <v>391.8559516727273</v>
+        <v>391.8559516727274</v>
       </c>
       <c r="O15" t="n">
-        <v>199.0716384796289</v>
+        <v>409.2334779737636</v>
       </c>
       <c r="P15" t="n">
-        <v>75.43246886299639</v>
+        <v>331.2012793855346</v>
       </c>
       <c r="Q15" t="n">
         <v>99.58745273990355</v>
@@ -9164,16 +9164,16 @@
         <v>130.6709145208901</v>
       </c>
       <c r="K17" t="n">
-        <v>145.8720751086091</v>
+        <v>337.1112290740114</v>
       </c>
       <c r="L17" t="n">
-        <v>434.3676631324684</v>
+        <v>144.624563809425</v>
       </c>
       <c r="M17" t="n">
         <v>467.4940748325458</v>
       </c>
       <c r="N17" t="n">
-        <v>392.36596040983</v>
+        <v>454.8408013884635</v>
       </c>
       <c r="O17" t="n">
         <v>396.0321885132552</v>
@@ -9182,7 +9182,7 @@
         <v>334.6706564983419</v>
       </c>
       <c r="Q17" t="n">
-        <v>158.412470621423</v>
+        <v>194.4415750004308</v>
       </c>
       <c r="R17" t="n">
         <v>68.34507666790174</v>
@@ -9252,7 +9252,7 @@
         <v>404.3167596526284</v>
       </c>
       <c r="N18" t="n">
-        <v>342.468825018145</v>
+        <v>391.8559516727274</v>
       </c>
       <c r="O18" t="n">
         <v>409.2334779737636</v>
@@ -9261,7 +9261,7 @@
         <v>331.2012793855346</v>
       </c>
       <c r="Q18" t="n">
-        <v>218.4803792452831</v>
+        <v>169.0932525907004</v>
       </c>
       <c r="R18" t="n">
         <v>47.34253660377365</v>
@@ -9398,13 +9398,13 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>175.8604797789567</v>
+        <v>130.6709145208901</v>
       </c>
       <c r="K20" t="n">
-        <v>337.1112290740114</v>
+        <v>310.7452137881413</v>
       </c>
       <c r="L20" t="n">
-        <v>434.3676631324684</v>
+        <v>144.624563809425</v>
       </c>
       <c r="M20" t="n">
         <v>467.4940748325458</v>
@@ -9413,10 +9413,10 @@
         <v>454.8408013884635</v>
       </c>
       <c r="O20" t="n">
-        <v>221.6335017824621</v>
+        <v>396.0321885132552</v>
       </c>
       <c r="P20" t="n">
-        <v>147.7706633621546</v>
+        <v>334.6706564983419</v>
       </c>
       <c r="Q20" t="n">
         <v>220.8075902863009</v>
@@ -9480,13 +9480,13 @@
         <v>96.35942956696496</v>
       </c>
       <c r="K21" t="n">
-        <v>87.72295232013131</v>
+        <v>275.0438464930818</v>
       </c>
       <c r="L21" t="n">
-        <v>141.8394504589354</v>
+        <v>293.488939727671</v>
       </c>
       <c r="M21" t="n">
-        <v>404.3167596526283</v>
+        <v>65.34637621094224</v>
       </c>
       <c r="N21" t="n">
         <v>391.8559516727274</v>
@@ -9647,10 +9647,10 @@
         <v>467.4940748325458</v>
       </c>
       <c r="N23" t="n">
-        <v>454.8408013884635</v>
+        <v>342.8372343225487</v>
       </c>
       <c r="O23" t="n">
-        <v>284.0286214473398</v>
+        <v>396.0321885132552</v>
       </c>
       <c r="P23" t="n">
         <v>147.7706633621546</v>
@@ -9714,28 +9714,28 @@
         <v>10.53077703452832</v>
       </c>
       <c r="J24" t="n">
-        <v>96.35942956696496</v>
+        <v>131.1346767540252</v>
       </c>
       <c r="K24" t="n">
-        <v>87.72295232013131</v>
+        <v>275.0438464930818</v>
       </c>
       <c r="L24" t="n">
-        <v>72.33365060813857</v>
+        <v>385.6739591155975</v>
       </c>
       <c r="M24" t="n">
-        <v>404.3167596526283</v>
+        <v>404.3167596526284</v>
       </c>
       <c r="N24" t="n">
-        <v>391.8559516727273</v>
+        <v>391.8559516727274</v>
       </c>
       <c r="O24" t="n">
-        <v>409.2334779737635</v>
+        <v>80.17871197424975</v>
       </c>
       <c r="P24" t="n">
-        <v>331.2012793855346</v>
+        <v>75.43246886299639</v>
       </c>
       <c r="Q24" t="n">
-        <v>169.0932525907004</v>
+        <v>218.4803792452831</v>
       </c>
       <c r="R24" t="n">
         <v>47.34253660377365</v>
@@ -10583,7 +10583,7 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>175.8604797789567</v>
+        <v>175.860479778957</v>
       </c>
       <c r="K35" t="n">
         <v>337.1112290740114</v>
@@ -10604,7 +10604,7 @@
         <v>334.6706564983419</v>
       </c>
       <c r="Q35" t="n">
-        <v>220.8075902863008</v>
+        <v>220.8075902863009</v>
       </c>
       <c r="R35" t="n">
         <v>68.34507666790174</v>
@@ -10665,22 +10665,22 @@
         <v>96.35942956696496</v>
       </c>
       <c r="K36" t="n">
-        <v>87.72295232013131</v>
+        <v>275.0438464930818</v>
       </c>
       <c r="L36" t="n">
-        <v>331.4919393319809</v>
+        <v>385.6739591155975</v>
       </c>
       <c r="M36" t="n">
         <v>484.3332662999999</v>
       </c>
       <c r="N36" t="n">
-        <v>483.1023019452555</v>
+        <v>483.1023019452556</v>
       </c>
       <c r="O36" t="n">
         <v>409.6168120477987</v>
       </c>
       <c r="P36" t="n">
-        <v>331.2012793855346</v>
+        <v>89.69836542896788</v>
       </c>
       <c r="Q36" t="n">
         <v>99.58745273990355</v>
@@ -10902,10 +10902,10 @@
         <v>96.35942956696496</v>
       </c>
       <c r="K39" t="n">
-        <v>275.0438464930818</v>
+        <v>87.72295232013131</v>
       </c>
       <c r="L39" t="n">
-        <v>385.6739591155975</v>
+        <v>212.5990128266014</v>
       </c>
       <c r="M39" t="n">
         <v>484.3332662999999</v>
@@ -10917,10 +10917,10 @@
         <v>409.6168120477987</v>
       </c>
       <c r="P39" t="n">
-        <v>89.69836542896763</v>
+        <v>331.2012793855346</v>
       </c>
       <c r="Q39" t="n">
-        <v>99.58745273990355</v>
+        <v>218.4803792452831</v>
       </c>
       <c r="R39" t="n">
         <v>47.34253660377365</v>
@@ -11136,10 +11136,10 @@
         <v>10.53077703452832</v>
       </c>
       <c r="J42" t="n">
-        <v>96.35942956696496</v>
+        <v>131.1346767540252</v>
       </c>
       <c r="K42" t="n">
-        <v>87.72295232013131</v>
+        <v>275.0438464930818</v>
       </c>
       <c r="L42" t="n">
         <v>385.6739591155975</v>
@@ -11148,13 +11148,13 @@
         <v>484.3332662999999</v>
       </c>
       <c r="N42" t="n">
-        <v>487.1996685536559</v>
+        <v>478.8168675917718</v>
       </c>
       <c r="O42" t="n">
         <v>409.6168120477987</v>
       </c>
       <c r="P42" t="n">
-        <v>289.1458092611233</v>
+        <v>75.43246886299639</v>
       </c>
       <c r="Q42" t="n">
         <v>99.58745273990355</v>
@@ -11373,25 +11373,25 @@
         <v>10.53077703452832</v>
       </c>
       <c r="J45" t="n">
-        <v>131.1346767540252</v>
+        <v>96.35942956696496</v>
       </c>
       <c r="K45" t="n">
-        <v>275.0438464930818</v>
+        <v>87.72295232013131</v>
       </c>
       <c r="L45" t="n">
         <v>385.6739591155975</v>
       </c>
       <c r="M45" t="n">
-        <v>220.1816548155776</v>
+        <v>484.3332662999999</v>
       </c>
       <c r="N45" t="n">
-        <v>487.199668553656</v>
+        <v>487.1996685536559</v>
       </c>
       <c r="O45" t="n">
         <v>409.6168120477987</v>
       </c>
       <c r="P45" t="n">
-        <v>331.2012793855346</v>
+        <v>289.1458092611233</v>
       </c>
       <c r="Q45" t="n">
         <v>99.58745273990355</v>
@@ -23255,28 +23255,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>239.2980585815355</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>222.5667442690831</v>
       </c>
       <c r="D11" t="n">
-        <v>212.1863813447387</v>
+        <v>212.1863813447388</v>
       </c>
       <c r="E11" t="n">
-        <v>238.6996843454278</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>66.16924250633159</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>269.8962134915471</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>39.97987658855402</v>
+        <v>39.97987658855411</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23306,25 +23306,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>49.13678136468732</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>76.18203808719862</v>
+        <v>76.18203808719871</v>
       </c>
       <c r="U11" t="n">
-        <v>107.0161961264909</v>
+        <v>6.453112511875777</v>
       </c>
       <c r="V11" t="n">
-        <v>184.1148701126597</v>
+        <v>184.1148701126598</v>
       </c>
       <c r="W11" t="n">
-        <v>206.1117655906949</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>226.4432477213098</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>242.2687203413763</v>
       </c>
     </row>
     <row r="12">
@@ -23492,22 +23492,22 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>239.2980585815354</v>
       </c>
       <c r="C14" t="n">
         <v>222.566744269083</v>
       </c>
       <c r="D14" t="n">
-        <v>212.1863813447388</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
         <v>238.6996843454278</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>262.8755120706812</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>60.58609573653795</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -23546,19 +23546,19 @@
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>76.18203808719865</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>107.0161961264909</v>
       </c>
       <c r="V14" t="n">
-        <v>184.1148701126597</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>123.2134014237356</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>226.4432477213098</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
         <v>242.2687203413762</v>
@@ -23966,7 +23966,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>6.536993168992922e-13</v>
+        <v>0</v>
       </c>
       <c r="C20" t="n">
         <v>0</v>
@@ -26314,40 +26314,40 @@
         <v>426382.0983217637</v>
       </c>
       <c r="C2" t="n">
-        <v>426382.0983217636</v>
+        <v>426382.0983217637</v>
       </c>
       <c r="D2" t="n">
-        <v>426382.0983217636</v>
+        <v>426382.0983217638</v>
       </c>
       <c r="E2" t="n">
         <v>366733.374981799</v>
       </c>
       <c r="F2" t="n">
-        <v>366733.374981799</v>
+        <v>366733.3749817989</v>
       </c>
       <c r="G2" t="n">
-        <v>427307.6895228414</v>
+        <v>427307.6895228415</v>
       </c>
       <c r="H2" t="n">
-        <v>427307.6895228414</v>
+        <v>427307.6895228415</v>
       </c>
       <c r="I2" t="n">
         <v>427307.6895228414</v>
       </c>
       <c r="J2" t="n">
-        <v>427307.6895228424</v>
+        <v>427307.6895228419</v>
       </c>
       <c r="K2" t="n">
-        <v>427307.6895228419</v>
+        <v>427307.6895228422</v>
       </c>
       <c r="L2" t="n">
-        <v>427307.6895228422</v>
+        <v>427307.6895228418</v>
       </c>
       <c r="M2" t="n">
         <v>427307.6895228412</v>
       </c>
       <c r="N2" t="n">
-        <v>427307.6895228412</v>
+        <v>427307.6895228414</v>
       </c>
       <c r="O2" t="n">
         <v>427307.6895228413</v>
@@ -26378,7 +26378,7 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>85612.95690119268</v>
+        <v>85612.95690119271</v>
       </c>
       <c r="H3" t="n">
         <v>2.273736754432321e-11</v>
@@ -26396,13 +26396,13 @@
         <v>85612.95690119271</v>
       </c>
       <c r="M3" t="n">
-        <v>75640.37506652034</v>
+        <v>75640.3750665203</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-11</v>
       </c>
       <c r="O3" t="n">
-        <v>27404.59979182164</v>
+        <v>27404.59979182157</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26424,10 +26424,10 @@
         <v>443230.4832370162</v>
       </c>
       <c r="E4" t="n">
+        <v>324304.765881063</v>
+      </c>
+      <c r="F4" t="n">
         <v>324304.7658810629</v>
-      </c>
-      <c r="F4" t="n">
-        <v>324304.765881063</v>
       </c>
       <c r="G4" t="n">
         <v>390012.5802270992</v>
@@ -26436,7 +26436,7 @@
         <v>390012.5802270992</v>
       </c>
       <c r="I4" t="n">
-        <v>390012.5802270991</v>
+        <v>390012.5802270992</v>
       </c>
       <c r="J4" t="n">
         <v>386268.9668810162</v>
@@ -26488,10 +26488,10 @@
         <v>44676.62256460899</v>
       </c>
       <c r="I5" t="n">
-        <v>44676.62256460899</v>
+        <v>44676.622564609</v>
       </c>
       <c r="J5" t="n">
-        <v>58849.83301596968</v>
+        <v>58849.8330159697</v>
       </c>
       <c r="K5" t="n">
         <v>58849.83301596969</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-50475.98491525251</v>
+        <v>-50480.3924924005</v>
       </c>
       <c r="C6" t="n">
-        <v>-50475.98491525262</v>
+        <v>-50480.39249240056</v>
       </c>
       <c r="D6" t="n">
-        <v>-50475.98491525262</v>
+        <v>-50480.39249240044</v>
       </c>
       <c r="E6" t="n">
-        <v>-317952.2268288276</v>
+        <v>-318240.6759456896</v>
       </c>
       <c r="F6" t="n">
-        <v>6748.731128285013</v>
+        <v>6460.282011422905</v>
       </c>
       <c r="G6" t="n">
-        <v>-92994.47017005947</v>
+        <v>-92994.47017005942</v>
       </c>
       <c r="H6" t="n">
-        <v>-7381.513268866809</v>
+        <v>-7381.513268866693</v>
       </c>
       <c r="I6" t="n">
-        <v>-7381.513268866751</v>
+        <v>-7381.513268866816</v>
       </c>
       <c r="J6" t="n">
-        <v>-146103.1156978892</v>
+        <v>-146103.1156978897</v>
       </c>
       <c r="K6" t="n">
-        <v>-17811.11037414395</v>
+        <v>-17811.11037414373</v>
       </c>
       <c r="L6" t="n">
-        <v>-103424.0672753363</v>
+        <v>-103424.0672753368</v>
       </c>
       <c r="M6" t="n">
-        <v>-82434.37750000773</v>
+        <v>-82434.37750000767</v>
       </c>
       <c r="N6" t="n">
         <v>-6794.002433487258</v>
       </c>
       <c r="O6" t="n">
-        <v>-34295.89625242644</v>
+        <v>-34295.89625242638</v>
       </c>
       <c r="P6" t="n">
-        <v>-6891.296460604768</v>
+        <v>-6891.296460604826</v>
       </c>
     </row>
   </sheetData>
@@ -26707,7 +26707,7 @@
         <v>251.4345475363505</v>
       </c>
       <c r="J2" t="n">
-        <v>141.3644900128268</v>
+        <v>141.3644900128269</v>
       </c>
       <c r="K2" t="n">
         <v>141.3644900128269</v>
@@ -26722,7 +26722,7 @@
         <v>221.9254778582149</v>
       </c>
       <c r="O2" t="n">
-        <v>220.6003894970582</v>
+        <v>220.6003894970583</v>
       </c>
       <c r="P2" t="n">
         <v>220.6003894970583</v>
@@ -26808,16 +26808,16 @@
         <v>338.9703834416861</v>
       </c>
       <c r="I4" t="n">
-        <v>338.9703834416861</v>
+        <v>338.9703834416862</v>
       </c>
       <c r="J4" t="n">
-        <v>724.2777866868473</v>
+        <v>724.2777866868475</v>
       </c>
       <c r="K4" t="n">
-        <v>724.2777866868473</v>
+        <v>724.2777866868474</v>
       </c>
       <c r="L4" t="n">
-        <v>724.2777866868473</v>
+        <v>724.2777866868474</v>
       </c>
       <c r="M4" t="n">
         <v>430.2167337142143</v>
@@ -26929,7 +26929,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>34.34829388633599</v>
+        <v>34.34829388633594</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -26938,13 +26938,13 @@
         <v>107.0161961264909</v>
       </c>
       <c r="M2" t="n">
-        <v>80.56098784538807</v>
+        <v>80.56098784538801</v>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>5.684341886080801e-14</v>
       </c>
       <c r="O2" t="n">
-        <v>33.02320552517935</v>
+        <v>33.02320552517926</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>385.3074032451613</v>
+        <v>385.3074032451614</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>44.90933046905297</v>
+        <v>44.90933046905303</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27166,7 +27166,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>34.34829388633599</v>
+        <v>34.34829388633594</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -28166,7 +28166,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>144.4183514098596</v>
+        <v>0</v>
       </c>
       <c r="C12" t="n">
         <v>144.4183514098596</v>
@@ -28175,13 +28175,13 @@
         <v>144.4183514098596</v>
       </c>
       <c r="E12" t="n">
-        <v>0</v>
+        <v>144.4183514098596</v>
       </c>
       <c r="F12" t="n">
-        <v>0</v>
+        <v>143.5062320835493</v>
       </c>
       <c r="G12" t="n">
-        <v>0</v>
+        <v>135.7341774550896</v>
       </c>
       <c r="H12" t="n">
         <v>107.6710676475892</v>
@@ -28214,25 +28214,25 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>76.74959551402542</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
+        <v>8.786294825342964</v>
+      </c>
+      <c r="T12" t="n">
+        <v>0</v>
+      </c>
+      <c r="U12" t="n">
+        <v>0</v>
+      </c>
+      <c r="V12" t="n">
+        <v>0</v>
+      </c>
+      <c r="W12" t="n">
         <v>144.4183514098596</v>
       </c>
-      <c r="T12" t="n">
+      <c r="X12" t="n">
         <v>144.4183514098596</v>
-      </c>
-      <c r="U12" t="n">
-        <v>0</v>
-      </c>
-      <c r="V12" t="n">
-        <v>144.4183514098596</v>
-      </c>
-      <c r="W12" t="n">
-        <v>0</v>
-      </c>
-      <c r="X12" t="n">
-        <v>66.85875744009633</v>
       </c>
       <c r="Y12" t="n">
         <v>144.4183514098596</v>
@@ -28269,22 +28269,22 @@
         <v>144.4183514098596</v>
       </c>
       <c r="J13" t="n">
+        <v>71.70714980148173</v>
+      </c>
+      <c r="K13" t="n">
+        <v>0</v>
+      </c>
+      <c r="L13" t="n">
+        <v>0</v>
+      </c>
+      <c r="M13" t="n">
+        <v>0</v>
+      </c>
+      <c r="N13" t="n">
+        <v>102.8514314095446</v>
+      </c>
+      <c r="O13" t="n">
         <v>144.4183514098596</v>
-      </c>
-      <c r="K13" t="n">
-        <v>0</v>
-      </c>
-      <c r="L13" t="n">
-        <v>144.4183514098596</v>
-      </c>
-      <c r="M13" t="n">
-        <v>0</v>
-      </c>
-      <c r="N13" t="n">
-        <v>0</v>
-      </c>
-      <c r="O13" t="n">
-        <v>30.14022980116489</v>
       </c>
       <c r="P13" t="n">
         <v>144.4183514098596</v>
@@ -28418,7 +28418,7 @@
         <v>143.5062320835493</v>
       </c>
       <c r="G15" t="n">
-        <v>135.7341774550896</v>
+        <v>0</v>
       </c>
       <c r="H15" t="n">
         <v>107.6710676475892</v>
@@ -28451,25 +28451,25 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>0.102120870572648</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
       </c>
       <c r="T15" t="n">
+        <v>0</v>
+      </c>
+      <c r="U15" t="n">
         <v>144.4183514098596</v>
       </c>
-      <c r="U15" t="n">
-        <v>0</v>
-      </c>
       <c r="V15" t="n">
-        <v>0</v>
+        <v>144.4183514098596</v>
       </c>
       <c r="W15" t="n">
         <v>0</v>
       </c>
       <c r="X15" t="n">
-        <v>8.786294825342878</v>
+        <v>0</v>
       </c>
       <c r="Y15" t="n">
         <v>144.4183514098596</v>
@@ -28509,25 +28509,25 @@
         <v>144.4183514098596</v>
       </c>
       <c r="K16" t="n">
-        <v>0</v>
+        <v>115.0884874568593</v>
       </c>
       <c r="L16" t="n">
-        <v>0</v>
+        <v>144.4183514098596</v>
       </c>
       <c r="M16" t="n">
-        <v>30.14022980116553</v>
+        <v>0</v>
       </c>
       <c r="N16" t="n">
         <v>144.4183514098596</v>
       </c>
       <c r="O16" t="n">
-        <v>144.4183514098596</v>
+        <v>0</v>
       </c>
       <c r="P16" t="n">
         <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>144.4183514098596</v>
+        <v>59.47009375416584</v>
       </c>
       <c r="R16" t="n">
         <v>144.4183514098596</v>
@@ -28640,7 +28640,7 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0</v>
+        <v>165.3721256103448</v>
       </c>
       <c r="C18" t="n">
         <v>0</v>
@@ -28649,16 +28649,16 @@
         <v>0</v>
       </c>
       <c r="E18" t="n">
-        <v>0</v>
+        <v>156.0334337071738</v>
       </c>
       <c r="F18" t="n">
-        <v>143.5062320835493</v>
+        <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>135.7341774550896</v>
+        <v>0</v>
       </c>
       <c r="H18" t="n">
-        <v>107.6710676475892</v>
+        <v>0</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
@@ -28688,28 +28688,28 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>76.74959551402542</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>163.5929573440222</v>
       </c>
       <c r="T18" t="n">
-        <v>197.2175270959592</v>
+        <v>0</v>
       </c>
       <c r="U18" t="n">
-        <v>0</v>
+        <v>224.6381617547043</v>
       </c>
       <c r="V18" t="n">
-        <v>0</v>
+        <v>231.9087310396551</v>
       </c>
       <c r="W18" t="n">
-        <v>106.155738895528</v>
+        <v>0</v>
       </c>
       <c r="X18" t="n">
         <v>204.4616296084783</v>
       </c>
       <c r="Y18" t="n">
-        <v>203.671151418586</v>
+        <v>192.7530379984485</v>
       </c>
     </row>
     <row r="19">
@@ -28764,10 +28764,10 @@
         <v>0</v>
       </c>
       <c r="Q19" t="n">
-        <v>59.47009375416584</v>
+        <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>162.4957684625474</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>218.1345113002278</v>
@@ -28776,16 +28776,16 @@
         <v>227.297118594136</v>
       </c>
       <c r="U19" t="n">
-        <v>251.4345475363505</v>
+        <v>180.9674234410152</v>
       </c>
       <c r="V19" t="n">
         <v>251.4345475363505</v>
       </c>
       <c r="W19" t="n">
-        <v>185.1419211566113</v>
+        <v>251.4345475363505</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>226.1403599323093</v>
       </c>
       <c r="Y19" t="n">
         <v>218.7486738677682</v>
@@ -28877,13 +28877,13 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0</v>
+        <v>165.3721256103448</v>
       </c>
       <c r="C21" t="n">
-        <v>171.025583927401</v>
+        <v>0</v>
       </c>
       <c r="D21" t="n">
-        <v>29.39373591644657</v>
+        <v>146.1124235746456</v>
       </c>
       <c r="E21" t="n">
         <v>156.0334337071738</v>
@@ -28895,10 +28895,10 @@
         <v>135.7341774550896</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
+        <v>107.6710676475892</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>76.55219659209878</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -28934,7 +28934,7 @@
         <v>197.2175270959592</v>
       </c>
       <c r="U21" t="n">
-        <v>224.6381617547043</v>
+        <v>0</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -28943,7 +28943,7 @@
         <v>0</v>
       </c>
       <c r="X21" t="n">
-        <v>204.4616296084783</v>
+        <v>133.8112977823515</v>
       </c>
       <c r="Y21" t="n">
         <v>0</v>
@@ -28980,7 +28980,7 @@
         <v>146.4714634133492</v>
       </c>
       <c r="J22" t="n">
-        <v>71.70714980148173</v>
+        <v>1.240025706146341</v>
       </c>
       <c r="K22" t="n">
         <v>0</v>
@@ -29001,16 +29001,16 @@
         <v>0</v>
       </c>
       <c r="Q22" t="n">
-        <v>59.47009375416584</v>
+        <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>162.4957684625474</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>218.1345113002278</v>
       </c>
       <c r="T22" t="n">
-        <v>152.9986435823151</v>
+        <v>227.297118594136</v>
       </c>
       <c r="U22" t="n">
         <v>251.4345475363505</v>
@@ -29117,7 +29117,7 @@
         <v>0</v>
       </c>
       <c r="C24" t="n">
-        <v>0</v>
+        <v>171.025583927401</v>
       </c>
       <c r="D24" t="n">
         <v>0</v>
@@ -29129,7 +29129,7 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>0</v>
+        <v>3.736511708721963</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
@@ -29165,13 +29165,13 @@
         <v>76.74959551402542</v>
       </c>
       <c r="S24" t="n">
-        <v>163.5929573440222</v>
+        <v>0</v>
       </c>
       <c r="T24" t="n">
         <v>197.2175270959592</v>
       </c>
       <c r="U24" t="n">
-        <v>224.6381617547043</v>
+        <v>0</v>
       </c>
       <c r="V24" t="n">
         <v>231.9087310396551</v>
@@ -29180,10 +29180,10 @@
         <v>249.98934675</v>
       </c>
       <c r="X24" t="n">
-        <v>194.6637575644613</v>
+        <v>204.4616296084783</v>
       </c>
       <c r="Y24" t="n">
-        <v>0</v>
+        <v>203.671151418586</v>
       </c>
     </row>
     <row r="25">
@@ -29193,7 +29193,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>180.0836914906838</v>
       </c>
       <c r="C25" t="n">
         <v>167.3365529312023</v>
@@ -29202,7 +29202,7 @@
         <v>149.0055665145194</v>
       </c>
       <c r="E25" t="n">
-        <v>146.9746241731992</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>146.1590214098045</v>
@@ -29250,7 +29250,7 @@
         <v>227.297118594136</v>
       </c>
       <c r="U25" t="n">
-        <v>251.4345475363505</v>
+        <v>105.9761853975011</v>
       </c>
       <c r="V25" t="n">
         <v>251.4345475363505</v>
@@ -29262,7 +29262,7 @@
         <v>226.1403599323093</v>
       </c>
       <c r="Y25" t="n">
-        <v>106.3993790464034</v>
+        <v>218.7486738677682</v>
       </c>
     </row>
     <row r="26">
@@ -29272,76 +29272,76 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>141.3644900128268</v>
+        <v>141.3644900128269</v>
       </c>
       <c r="C26" t="n">
-        <v>141.3644900128268</v>
+        <v>141.3644900128269</v>
       </c>
       <c r="D26" t="n">
-        <v>141.3644900128268</v>
+        <v>141.3644900128269</v>
       </c>
       <c r="E26" t="n">
-        <v>141.3644900128268</v>
+        <v>141.3644900128269</v>
       </c>
       <c r="F26" t="n">
-        <v>141.3644900128268</v>
+        <v>141.3644900128269</v>
       </c>
       <c r="G26" t="n">
-        <v>141.3644900128268</v>
+        <v>141.3644900128269</v>
       </c>
       <c r="H26" t="n">
-        <v>141.3644900128268</v>
+        <v>141.3644900128269</v>
       </c>
       <c r="I26" t="n">
-        <v>141.3644900128268</v>
+        <v>141.3644900128269</v>
       </c>
       <c r="J26" t="n">
-        <v>141.3644900128268</v>
+        <v>141.3644900128269</v>
       </c>
       <c r="K26" t="n">
-        <v>141.3644900128268</v>
+        <v>141.3644900128269</v>
       </c>
       <c r="L26" t="n">
-        <v>141.3644900128268</v>
+        <v>141.3644900128269</v>
       </c>
       <c r="M26" t="n">
-        <v>141.3644900128273</v>
+        <v>141.3644900128269</v>
       </c>
       <c r="N26" t="n">
-        <v>141.3644900128268</v>
+        <v>141.3644900128269</v>
       </c>
       <c r="O26" t="n">
-        <v>141.3644900128268</v>
+        <v>141.3644900128269</v>
       </c>
       <c r="P26" t="n">
-        <v>141.3644900128268</v>
+        <v>141.3644900128269</v>
       </c>
       <c r="Q26" t="n">
-        <v>141.3644900128268</v>
+        <v>141.3644900128269</v>
       </c>
       <c r="R26" t="n">
-        <v>141.3644900128268</v>
+        <v>141.3644900128269</v>
       </c>
       <c r="S26" t="n">
-        <v>141.3644900128268</v>
+        <v>141.3644900128269</v>
       </c>
       <c r="T26" t="n">
-        <v>141.3644900128268</v>
+        <v>141.3644900128269</v>
       </c>
       <c r="U26" t="n">
-        <v>141.3644900128268</v>
+        <v>141.3644900128269</v>
       </c>
       <c r="V26" t="n">
-        <v>141.3644900128268</v>
+        <v>141.3644900128269</v>
       </c>
       <c r="W26" t="n">
-        <v>141.3644900128268</v>
+        <v>141.3644900128269</v>
       </c>
       <c r="X26" t="n">
-        <v>141.3644900128268</v>
+        <v>141.3644900128269</v>
       </c>
       <c r="Y26" t="n">
-        <v>141.3644900128268</v>
+        <v>141.3644900128269</v>
       </c>
     </row>
     <row r="27">
@@ -29354,25 +29354,25 @@
         <v>0</v>
       </c>
       <c r="C27" t="n">
-        <v>0</v>
+        <v>141.3644900128269</v>
       </c>
       <c r="D27" t="n">
         <v>0</v>
       </c>
       <c r="E27" t="n">
-        <v>141.3644900128268</v>
+        <v>0</v>
       </c>
       <c r="F27" t="n">
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>135.7341774550896</v>
+        <v>0</v>
       </c>
       <c r="H27" t="n">
-        <v>107.6710676475892</v>
+        <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>76.55219659209878</v>
+        <v>0</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -29399,13 +29399,13 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>76.74959551402542</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
-        <v>44.16549729744213</v>
+        <v>0</v>
       </c>
       <c r="T27" t="n">
-        <v>0</v>
+        <v>16.7790644677645</v>
       </c>
       <c r="U27" t="n">
         <v>0</v>
@@ -29414,13 +29414,13 @@
         <v>0</v>
       </c>
       <c r="W27" t="n">
-        <v>0</v>
+        <v>141.3644900128269</v>
       </c>
       <c r="X27" t="n">
-        <v>0</v>
+        <v>141.3644900128269</v>
       </c>
       <c r="Y27" t="n">
-        <v>0</v>
+        <v>141.3644900128269</v>
       </c>
     </row>
     <row r="28">
@@ -29430,37 +29430,37 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>141.3644900128268</v>
+        <v>141.3644900128269</v>
       </c>
       <c r="C28" t="n">
-        <v>141.3644900128268</v>
+        <v>141.3644900128269</v>
       </c>
       <c r="D28" t="n">
-        <v>141.3644900128268</v>
+        <v>141.3644900128269</v>
       </c>
       <c r="E28" t="n">
-        <v>141.3644900128268</v>
+        <v>141.3644900128269</v>
       </c>
       <c r="F28" t="n">
-        <v>141.3644900128268</v>
+        <v>141.3644900128269</v>
       </c>
       <c r="G28" t="n">
-        <v>141.3644900128268</v>
+        <v>141.3644900128269</v>
       </c>
       <c r="H28" t="n">
-        <v>141.3644900128268</v>
+        <v>141.3644900128269</v>
       </c>
       <c r="I28" t="n">
-        <v>141.3644900128268</v>
+        <v>141.3644900128269</v>
       </c>
       <c r="J28" t="n">
-        <v>141.3644900128268</v>
+        <v>141.3644900128269</v>
       </c>
       <c r="K28" t="n">
-        <v>141.3644900128268</v>
+        <v>141.3644900128269</v>
       </c>
       <c r="L28" t="n">
-        <v>92.20954984345843</v>
+        <v>141.3644900128269</v>
       </c>
       <c r="M28" t="n">
         <v>0</v>
@@ -29469,37 +29469,37 @@
         <v>0</v>
       </c>
       <c r="O28" t="n">
-        <v>0</v>
+        <v>92.20954984345778</v>
       </c>
       <c r="P28" t="n">
-        <v>141.3644900128268</v>
+        <v>0</v>
       </c>
       <c r="Q28" t="n">
-        <v>141.3644900128268</v>
+        <v>141.3644900128269</v>
       </c>
       <c r="R28" t="n">
-        <v>141.3644900128268</v>
+        <v>141.3644900128269</v>
       </c>
       <c r="S28" t="n">
-        <v>141.3644900128268</v>
+        <v>141.3644900128269</v>
       </c>
       <c r="T28" t="n">
-        <v>141.3644900128268</v>
+        <v>141.3644900128269</v>
       </c>
       <c r="U28" t="n">
-        <v>141.3644900128268</v>
+        <v>141.3644900128269</v>
       </c>
       <c r="V28" t="n">
-        <v>141.3644900128268</v>
+        <v>141.3644900128269</v>
       </c>
       <c r="W28" t="n">
-        <v>141.3644900128268</v>
+        <v>141.3644900128269</v>
       </c>
       <c r="X28" t="n">
-        <v>141.3644900128268</v>
+        <v>141.3644900128269</v>
       </c>
       <c r="Y28" t="n">
-        <v>141.3644900128268</v>
+        <v>141.3644900128269</v>
       </c>
     </row>
     <row r="29">
@@ -29533,7 +29533,7 @@
         <v>141.3644900128269</v>
       </c>
       <c r="J29" t="n">
-        <v>141.3644900128269</v>
+        <v>141.3644900128267</v>
       </c>
       <c r="K29" t="n">
         <v>141.3644900128269</v>
@@ -29591,7 +29591,7 @@
         <v>0</v>
       </c>
       <c r="C30" t="n">
-        <v>0</v>
+        <v>115.2847802537302</v>
       </c>
       <c r="D30" t="n">
         <v>0</v>
@@ -29603,13 +29603,13 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>81.39395896656572</v>
+        <v>0</v>
       </c>
       <c r="H30" t="n">
-        <v>0</v>
+        <v>107.6710676475892</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>76.55219659209878</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -29636,28 +29636,28 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>76.74959551402542</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
+        <v>0</v>
+      </c>
+      <c r="T30" t="n">
+        <v>0</v>
+      </c>
+      <c r="U30" t="n">
+        <v>0</v>
+      </c>
+      <c r="V30" t="n">
+        <v>0</v>
+      </c>
+      <c r="W30" t="n">
         <v>141.3644900128269</v>
       </c>
-      <c r="T30" t="n">
+      <c r="X30" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y30" t="n">
         <v>141.3644900128269</v>
-      </c>
-      <c r="U30" t="n">
-        <v>141.3644900128269</v>
-      </c>
-      <c r="V30" t="n">
-        <v>0</v>
-      </c>
-      <c r="W30" t="n">
-        <v>0</v>
-      </c>
-      <c r="X30" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y30" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="31">
@@ -29703,13 +29703,13 @@
         <v>141.3644900128269</v>
       </c>
       <c r="N31" t="n">
-        <v>0</v>
+        <v>92.20954984345749</v>
       </c>
       <c r="O31" t="n">
-        <v>92.20954984345789</v>
+        <v>141.3644900128269</v>
       </c>
       <c r="P31" t="n">
-        <v>141.3644900128269</v>
+        <v>0</v>
       </c>
       <c r="Q31" t="n">
         <v>141.3644900128269</v>
@@ -29788,7 +29788,7 @@
         <v>141.3644900128269</v>
       </c>
       <c r="P32" t="n">
-        <v>141.3644900128267</v>
+        <v>141.3644900128269</v>
       </c>
       <c r="Q32" t="n">
         <v>141.3644900128269</v>
@@ -29828,7 +29828,7 @@
         <v>0</v>
       </c>
       <c r="C33" t="n">
-        <v>0</v>
+        <v>120.9150928114675</v>
       </c>
       <c r="D33" t="n">
         <v>0</v>
@@ -29837,7 +29837,7 @@
         <v>0</v>
       </c>
       <c r="F33" t="n">
-        <v>0</v>
+        <v>141.3644900128269</v>
       </c>
       <c r="G33" t="n">
         <v>135.7341774550896</v>
@@ -29873,13 +29873,13 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>76.74959551402542</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
-        <v>141.3644900128269</v>
+        <v>0</v>
       </c>
       <c r="T33" t="n">
-        <v>44.16549729744193</v>
+        <v>0</v>
       </c>
       <c r="U33" t="n">
         <v>0</v>
@@ -29934,22 +29934,22 @@
         <v>141.3644900128269</v>
       </c>
       <c r="L34" t="n">
-        <v>92.20954984345738</v>
+        <v>0</v>
       </c>
       <c r="M34" t="n">
-        <v>0</v>
+        <v>141.3644900128269</v>
       </c>
       <c r="N34" t="n">
-        <v>0</v>
+        <v>141.3644900128269</v>
       </c>
       <c r="O34" t="n">
         <v>0</v>
       </c>
       <c r="P34" t="n">
-        <v>141.3644900128269</v>
+        <v>0</v>
       </c>
       <c r="Q34" t="n">
-        <v>141.3644900128269</v>
+        <v>92.20954984345732</v>
       </c>
       <c r="R34" t="n">
         <v>141.3644900128269</v>
@@ -30074,13 +30074,13 @@
         <v>0</v>
       </c>
       <c r="F36" t="n">
-        <v>143.5062320835493</v>
+        <v>0</v>
       </c>
       <c r="G36" t="n">
         <v>135.7341774550896</v>
       </c>
       <c r="H36" t="n">
-        <v>107.6710676475892</v>
+        <v>0</v>
       </c>
       <c r="I36" t="n">
         <v>76.55219659209878</v>
@@ -30113,19 +30113,19 @@
         <v>76.74959551402542</v>
       </c>
       <c r="S36" t="n">
-        <v>163.5929573440222</v>
+        <v>0</v>
       </c>
       <c r="T36" t="n">
-        <v>115.4728886784807</v>
+        <v>197.2175270959592</v>
       </c>
       <c r="U36" t="n">
-        <v>0</v>
+        <v>221.9254778582149</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
       </c>
       <c r="W36" t="n">
-        <v>0</v>
+        <v>111.1001407994672</v>
       </c>
       <c r="X36" t="n">
         <v>0</v>
@@ -30189,16 +30189,16 @@
         <v>59.47009375416584</v>
       </c>
       <c r="R37" t="n">
-        <v>162.4957684625474</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>218.1345113002278</v>
       </c>
       <c r="T37" t="n">
+        <v>190.101991853136</v>
+      </c>
+      <c r="U37" t="n">
         <v>221.9254778582149</v>
-      </c>
-      <c r="U37" t="n">
-        <v>27.60622339058835</v>
       </c>
       <c r="V37" t="n">
         <v>221.9254778582149</v>
@@ -30299,25 +30299,25 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>0</v>
+        <v>155.6871935852417</v>
       </c>
       <c r="C39" t="n">
-        <v>0</v>
+        <v>171.025583927401</v>
       </c>
       <c r="D39" t="n">
-        <v>0</v>
+        <v>146.1124235746456</v>
       </c>
       <c r="E39" t="n">
-        <v>0</v>
+        <v>156.0334337071738</v>
       </c>
       <c r="F39" t="n">
-        <v>0</v>
+        <v>143.5062320835493</v>
       </c>
       <c r="G39" t="n">
-        <v>0</v>
+        <v>135.7341774550896</v>
       </c>
       <c r="H39" t="n">
-        <v>107.6710676475892</v>
+        <v>0</v>
       </c>
       <c r="I39" t="n">
         <v>76.55219659209878</v>
@@ -30347,19 +30347,19 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>76.74959551402542</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
-        <v>163.5929573440222</v>
+        <v>0</v>
       </c>
       <c r="T39" t="n">
-        <v>197.2175270959592</v>
+        <v>0</v>
       </c>
       <c r="U39" t="n">
-        <v>221.9254778582149</v>
+        <v>0</v>
       </c>
       <c r="V39" t="n">
-        <v>140.9424188732903</v>
+        <v>0</v>
       </c>
       <c r="W39" t="n">
         <v>0</v>
@@ -30444,10 +30444,10 @@
         <v>221.9254778582149</v>
       </c>
       <c r="X40" t="n">
-        <v>221.9254778582149</v>
+        <v>27.60622339058841</v>
       </c>
       <c r="Y40" t="n">
-        <v>24.42941940014197</v>
+        <v>218.7486738677682</v>
       </c>
     </row>
     <row r="41">
@@ -30457,25 +30457,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>220.6003894970582</v>
+        <v>220.6003894970583</v>
       </c>
       <c r="C41" t="n">
-        <v>220.6003894970582</v>
+        <v>220.6003894970583</v>
       </c>
       <c r="D41" t="n">
-        <v>220.6003894970582</v>
+        <v>220.6003894970583</v>
       </c>
       <c r="E41" t="n">
-        <v>220.6003894970582</v>
+        <v>220.6003894970583</v>
       </c>
       <c r="F41" t="n">
-        <v>220.6003894970582</v>
+        <v>220.6003894970583</v>
       </c>
       <c r="G41" t="n">
-        <v>220.6003894970582</v>
+        <v>220.6003894970583</v>
       </c>
       <c r="H41" t="n">
-        <v>220.6003894970582</v>
+        <v>220.6003894970583</v>
       </c>
       <c r="I41" t="n">
         <v>200.6221442660192</v>
@@ -30511,22 +30511,22 @@
         <v>193.555132774547</v>
       </c>
       <c r="T41" t="n">
-        <v>220.6003894970582</v>
+        <v>220.6003894970583</v>
       </c>
       <c r="U41" t="n">
-        <v>220.6003894970582</v>
+        <v>220.6003894970583</v>
       </c>
       <c r="V41" t="n">
-        <v>220.6003894970582</v>
+        <v>220.6003894970583</v>
       </c>
       <c r="W41" t="n">
-        <v>220.6003894970582</v>
+        <v>220.6003894970583</v>
       </c>
       <c r="X41" t="n">
-        <v>220.6003894970582</v>
+        <v>220.6003894970583</v>
       </c>
       <c r="Y41" t="n">
-        <v>220.6003894970582</v>
+        <v>220.6003894970583</v>
       </c>
     </row>
     <row r="42">
@@ -30539,13 +30539,13 @@
         <v>0</v>
       </c>
       <c r="C42" t="n">
-        <v>0</v>
+        <v>171.025583927401</v>
       </c>
       <c r="D42" t="n">
         <v>146.1124235746456</v>
       </c>
       <c r="E42" t="n">
-        <v>0</v>
+        <v>156.0334337071738</v>
       </c>
       <c r="F42" t="n">
         <v>143.5062320835493</v>
@@ -30554,10 +30554,10 @@
         <v>135.7341774550896</v>
       </c>
       <c r="H42" t="n">
-        <v>105.8372675240286</v>
+        <v>107.6710676475892</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>76.55219659209878</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -30584,16 +30584,16 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>76.74959551402542</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
-        <v>163.5929573440222</v>
+        <v>0</v>
       </c>
       <c r="T42" t="n">
-        <v>197.2175270959592</v>
+        <v>0</v>
       </c>
       <c r="U42" t="n">
-        <v>0</v>
+        <v>32.11506560377228</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -30636,7 +30636,7 @@
         <v>159.4796682756625</v>
       </c>
       <c r="I43" t="n">
-        <v>146.4714634133492</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>71.70714980148173</v>
@@ -30669,22 +30669,22 @@
         <v>218.1345113002278</v>
       </c>
       <c r="T43" t="n">
-        <v>220.6003894970582</v>
+        <v>220.6003894970583</v>
       </c>
       <c r="U43" t="n">
-        <v>32.90657683521519</v>
+        <v>220.6003894970583</v>
       </c>
       <c r="V43" t="n">
-        <v>220.6003894970582</v>
+        <v>220.6003894970583</v>
       </c>
       <c r="W43" t="n">
-        <v>220.6003894970582</v>
+        <v>220.6003894970583</v>
       </c>
       <c r="X43" t="n">
-        <v>220.6003894970582</v>
+        <v>220.6003894970583</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.7486738677682</v>
+        <v>177.5263246192743</v>
       </c>
     </row>
     <row r="44">
@@ -30742,10 +30742,10 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>107.9174528904707</v>
+        <v>124.1413691580762</v>
       </c>
       <c r="S44" t="n">
-        <v>209.7790490421525</v>
+        <v>193.555132774547</v>
       </c>
       <c r="T44" t="n">
         <v>220.6003894970583</v>
@@ -30776,7 +30776,7 @@
         <v>0</v>
       </c>
       <c r="C45" t="n">
-        <v>0</v>
+        <v>171.025583927401</v>
       </c>
       <c r="D45" t="n">
         <v>0</v>
@@ -30794,7 +30794,7 @@
         <v>107.6710676475892</v>
       </c>
       <c r="I45" t="n">
-        <v>76.55219659209878</v>
+        <v>0</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -30824,10 +30824,10 @@
         <v>76.74959551402542</v>
       </c>
       <c r="S45" t="n">
-        <v>163.5929573440222</v>
+        <v>0</v>
       </c>
       <c r="T45" t="n">
-        <v>187.8497965414368</v>
+        <v>197.2175270959592</v>
       </c>
       <c r="U45" t="n">
         <v>220.6003894970583</v>
@@ -30839,7 +30839,7 @@
         <v>0</v>
       </c>
       <c r="X45" t="n">
-        <v>0</v>
+        <v>59.75183945419735</v>
       </c>
       <c r="Y45" t="n">
         <v>0</v>
@@ -30903,7 +30903,7 @@
         <v>162.4957684625474</v>
       </c>
       <c r="S46" t="n">
-        <v>218.1345113002278</v>
+        <v>30.44069863838462</v>
       </c>
       <c r="T46" t="n">
         <v>220.6003894970583</v>
@@ -30915,7 +30915,7 @@
         <v>220.6003894970583</v>
       </c>
       <c r="W46" t="n">
-        <v>32.90657683521508</v>
+        <v>220.6003894970583</v>
       </c>
       <c r="X46" t="n">
         <v>220.6003894970583</v>
@@ -35410,10 +35410,10 @@
         <v>45.18956525806659</v>
       </c>
       <c r="K11" t="n">
-        <v>191.2391539654022</v>
+        <v>0</v>
       </c>
       <c r="L11" t="n">
-        <v>289.7430993230435</v>
+        <v>119.6835734214655</v>
       </c>
       <c r="M11" t="n">
         <v>337.7609789072545</v>
@@ -35422,10 +35422,10 @@
         <v>327.5523905305998</v>
       </c>
       <c r="O11" t="n">
-        <v>88.30545304914897</v>
+        <v>262.7041397799421</v>
       </c>
       <c r="P11" t="n">
-        <v>0</v>
+        <v>186.8999931361873</v>
       </c>
       <c r="Q11" t="n">
         <v>62.39511966487782</v>
@@ -35489,13 +35489,13 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>187.3208941729505</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>313.340308507459</v>
       </c>
       <c r="M12" t="n">
-        <v>338.9703834416861</v>
+        <v>163.5837911346117</v>
       </c>
       <c r="N12" t="n">
         <v>338.9703834416861</v>
@@ -35504,10 +35504,10 @@
         <v>338.9703834416861</v>
       </c>
       <c r="P12" t="n">
-        <v>255.7688105225382</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>69.50579985079682</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35565,28 +35565,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>72.71120160837791</v>
+        <v>0</v>
       </c>
       <c r="K13" t="n">
         <v>13.37822802346511</v>
       </c>
       <c r="L13" t="n">
-        <v>217.9051653337981</v>
+        <v>73.48681392393848</v>
       </c>
       <c r="M13" t="n">
         <v>88.18144027963231</v>
       </c>
       <c r="N13" t="n">
-        <v>91.27787655816508</v>
+        <v>194.1293079677097</v>
       </c>
       <c r="O13" t="n">
-        <v>98.95861088291285</v>
+        <v>213.2367324916075</v>
       </c>
       <c r="P13" t="n">
-        <v>179.8473132545712</v>
+        <v>179.8473132545711</v>
       </c>
       <c r="Q13" t="n">
-        <v>84.94825765569379</v>
+        <v>84.94825765569371</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35644,7 +35644,7 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>45.18956525806659</v>
+        <v>0</v>
       </c>
       <c r="K14" t="n">
         <v>0</v>
@@ -35653,7 +35653,7 @@
         <v>289.7430993230435</v>
       </c>
       <c r="M14" t="n">
-        <v>337.7609789072545</v>
+        <v>212.8910182637432</v>
       </c>
       <c r="N14" t="n">
         <v>327.5523905305998</v>
@@ -35662,10 +35662,10 @@
         <v>262.7041397799421</v>
       </c>
       <c r="P14" t="n">
-        <v>79.23558689948679</v>
+        <v>186.8999931361873</v>
       </c>
       <c r="Q14" t="n">
-        <v>0</v>
+        <v>62.39511966487782</v>
       </c>
       <c r="R14" t="n">
         <v>0</v>
@@ -35726,22 +35726,22 @@
         <v>34.77524718706022</v>
       </c>
       <c r="K15" t="n">
-        <v>187.3208941729505</v>
+        <v>60.36062759796373</v>
       </c>
       <c r="L15" t="n">
         <v>313.340308507459</v>
       </c>
       <c r="M15" t="n">
-        <v>338.9703834416861</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
         <v>338.9703834416861</v>
       </c>
       <c r="O15" t="n">
-        <v>128.8085439475515</v>
+        <v>338.9703834416861</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>255.7688105225382</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
@@ -35805,25 +35805,25 @@
         <v>72.71120160837788</v>
       </c>
       <c r="K16" t="n">
-        <v>13.37822802346511</v>
+        <v>128.4667154803244</v>
       </c>
       <c r="L16" t="n">
-        <v>73.48681392393848</v>
+        <v>217.9051653337981</v>
       </c>
       <c r="M16" t="n">
-        <v>118.3216700807978</v>
+        <v>88.18144027963231</v>
       </c>
       <c r="N16" t="n">
         <v>235.6962279680247</v>
       </c>
       <c r="O16" t="n">
-        <v>213.2367324916076</v>
+        <v>68.81838108174796</v>
       </c>
       <c r="P16" t="n">
         <v>35.42896184471159</v>
       </c>
       <c r="Q16" t="n">
-        <v>84.94825765569377</v>
+        <v>0</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35884,16 +35884,16 @@
         <v>0</v>
       </c>
       <c r="K17" t="n">
-        <v>0</v>
+        <v>191.2391539654022</v>
       </c>
       <c r="L17" t="n">
-        <v>289.7430993230435</v>
+        <v>0</v>
       </c>
       <c r="M17" t="n">
         <v>337.7609789072545</v>
       </c>
       <c r="N17" t="n">
-        <v>265.0775495519663</v>
+        <v>327.5523905305998</v>
       </c>
       <c r="O17" t="n">
         <v>262.7041397799421</v>
@@ -35902,7 +35902,7 @@
         <v>186.8999931361873</v>
       </c>
       <c r="Q17" t="n">
-        <v>0</v>
+        <v>36.02910437900777</v>
       </c>
       <c r="R17" t="n">
         <v>0</v>
@@ -35972,7 +35972,7 @@
         <v>338.9703834416861</v>
       </c>
       <c r="N18" t="n">
-        <v>289.5832567871037</v>
+        <v>338.9703834416861</v>
       </c>
       <c r="O18" t="n">
         <v>338.9703834416861</v>
@@ -35981,7 +35981,7 @@
         <v>255.7688105225382</v>
       </c>
       <c r="Q18" t="n">
-        <v>118.8929265053795</v>
+        <v>69.50579985079682</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36118,13 +36118,13 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>45.18956525806659</v>
+        <v>0</v>
       </c>
       <c r="K20" t="n">
-        <v>191.2391539654022</v>
+        <v>164.8731386795321</v>
       </c>
       <c r="L20" t="n">
-        <v>289.7430993230435</v>
+        <v>0</v>
       </c>
       <c r="M20" t="n">
         <v>337.7609789072545</v>
@@ -36133,10 +36133,10 @@
         <v>327.5523905305998</v>
       </c>
       <c r="O20" t="n">
-        <v>88.30545304914897</v>
+        <v>262.7041397799421</v>
       </c>
       <c r="P20" t="n">
-        <v>0</v>
+        <v>186.8999931361873</v>
       </c>
       <c r="Q20" t="n">
         <v>62.39511966487782</v>
@@ -36200,13 +36200,13 @@
         <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>187.3208941729505</v>
       </c>
       <c r="L21" t="n">
-        <v>69.50579985079685</v>
+        <v>221.1552891195325</v>
       </c>
       <c r="M21" t="n">
-        <v>338.9703834416861</v>
+        <v>0</v>
       </c>
       <c r="N21" t="n">
         <v>338.9703834416861</v>
@@ -36367,10 +36367,10 @@
         <v>337.7609789072545</v>
       </c>
       <c r="N23" t="n">
-        <v>327.5523905305998</v>
+        <v>215.5488234646851</v>
       </c>
       <c r="O23" t="n">
-        <v>150.7005727140267</v>
+        <v>262.7041397799421</v>
       </c>
       <c r="P23" t="n">
         <v>0</v>
@@ -36434,28 +36434,28 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>34.77524718706022</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>187.3208941729505</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>313.340308507459</v>
       </c>
       <c r="M24" t="n">
-        <v>338.9703834416861</v>
+        <v>338.9703834416862</v>
       </c>
       <c r="N24" t="n">
-        <v>338.9703834416861</v>
+        <v>338.9703834416862</v>
       </c>
       <c r="O24" t="n">
-        <v>338.9703834416861</v>
+        <v>9.915617442172307</v>
       </c>
       <c r="P24" t="n">
-        <v>255.7688105225382</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>69.50579985079682</v>
+        <v>118.8929265053795</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36592,7 +36592,7 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>186.5540552708934</v>
+        <v>186.5540552708935</v>
       </c>
       <c r="K26" t="n">
         <v>332.6036439782291</v>
@@ -36601,7 +36601,7 @@
         <v>431.1075893358703</v>
       </c>
       <c r="M26" t="n">
-        <v>479.1254689200818</v>
+        <v>479.1254689200814</v>
       </c>
       <c r="N26" t="n">
         <v>468.9168805434267</v>
@@ -36616,7 +36616,7 @@
         <v>203.7596096777047</v>
       </c>
       <c r="R26" t="n">
-        <v>33.44703712235619</v>
+        <v>33.44703712235621</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36750,13 +36750,13 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>69.65734021134512</v>
+        <v>69.65734021134514</v>
       </c>
       <c r="K28" t="n">
         <v>154.742718036292</v>
       </c>
       <c r="L28" t="n">
-        <v>165.6963637673969</v>
+        <v>214.8513039367654</v>
       </c>
       <c r="M28" t="n">
         <v>88.18144027963231</v>
@@ -36765,13 +36765,13 @@
         <v>91.27787655816508</v>
       </c>
       <c r="O28" t="n">
-        <v>68.81838108174796</v>
+        <v>161.0279309252057</v>
       </c>
       <c r="P28" t="n">
-        <v>176.7934518575384</v>
+        <v>35.42896184471159</v>
       </c>
       <c r="Q28" t="n">
-        <v>81.894396258661</v>
+        <v>81.89439625866103</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36829,22 +36829,22 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>186.5540552708935</v>
+        <v>186.5540552708933</v>
       </c>
       <c r="K29" t="n">
         <v>332.6036439782291</v>
       </c>
       <c r="L29" t="n">
-        <v>431.1075893358703</v>
+        <v>431.1075893358704</v>
       </c>
       <c r="M29" t="n">
-        <v>479.1254689200814</v>
+        <v>479.1254689200815</v>
       </c>
       <c r="N29" t="n">
         <v>468.9168805434267</v>
       </c>
       <c r="O29" t="n">
-        <v>404.0686297927689</v>
+        <v>404.068629792769</v>
       </c>
       <c r="P29" t="n">
         <v>328.2644831490142</v>
@@ -36853,7 +36853,7 @@
         <v>203.7596096777047</v>
       </c>
       <c r="R29" t="n">
-        <v>33.44703712235622</v>
+        <v>33.44703712235624</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36987,7 +36987,7 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>69.65734021134514</v>
+        <v>69.65734021134517</v>
       </c>
       <c r="K31" t="n">
         <v>13.37822802346511</v>
@@ -36999,16 +36999,16 @@
         <v>229.5459302924592</v>
       </c>
       <c r="N31" t="n">
-        <v>91.27787655816508</v>
+        <v>183.4874264016226</v>
       </c>
       <c r="O31" t="n">
-        <v>161.0279309252059</v>
+        <v>210.1828710945749</v>
       </c>
       <c r="P31" t="n">
-        <v>176.7934518575385</v>
+        <v>35.42896184471159</v>
       </c>
       <c r="Q31" t="n">
-        <v>81.89439625866103</v>
+        <v>81.89439625866106</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37072,10 +37072,10 @@
         <v>332.6036439782291</v>
       </c>
       <c r="L32" t="n">
-        <v>431.1075893358704</v>
+        <v>431.1075893358703</v>
       </c>
       <c r="M32" t="n">
-        <v>479.1254689200815</v>
+        <v>479.1254689200814</v>
       </c>
       <c r="N32" t="n">
         <v>468.9168805434267</v>
@@ -37084,13 +37084,13 @@
         <v>404.068629792769</v>
       </c>
       <c r="P32" t="n">
-        <v>328.264483149014</v>
+        <v>328.2644831490142</v>
       </c>
       <c r="Q32" t="n">
         <v>203.7596096777047</v>
       </c>
       <c r="R32" t="n">
-        <v>33.44703712235624</v>
+        <v>33.44703712235625</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37230,22 +37230,22 @@
         <v>154.742718036292</v>
       </c>
       <c r="L34" t="n">
-        <v>165.6963637673959</v>
+        <v>73.48681392393848</v>
       </c>
       <c r="M34" t="n">
-        <v>88.18144027963231</v>
+        <v>229.5459302924592</v>
       </c>
       <c r="N34" t="n">
-        <v>91.27787655816508</v>
+        <v>232.642366570992</v>
       </c>
       <c r="O34" t="n">
         <v>68.81838108174796</v>
       </c>
       <c r="P34" t="n">
-        <v>176.7934518575385</v>
+        <v>35.42896184471159</v>
       </c>
       <c r="Q34" t="n">
-        <v>81.89439625866106</v>
+        <v>32.73945608929148</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37303,7 +37303,7 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>45.18956525806659</v>
+        <v>45.18956525806689</v>
       </c>
       <c r="K35" t="n">
         <v>191.2391539654022</v>
@@ -37324,7 +37324,7 @@
         <v>186.8999931361873</v>
       </c>
       <c r="Q35" t="n">
-        <v>62.39511966487778</v>
+        <v>62.39511966487782</v>
       </c>
       <c r="R35" t="n">
         <v>0</v>
@@ -37385,10 +37385,10 @@
         <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>187.3208941729505</v>
       </c>
       <c r="L36" t="n">
-        <v>259.1582887238423</v>
+        <v>313.340308507459</v>
       </c>
       <c r="M36" t="n">
         <v>418.9868900890577</v>
@@ -37400,7 +37400,7 @@
         <v>339.3537175157212</v>
       </c>
       <c r="P36" t="n">
-        <v>255.7688105225382</v>
+        <v>14.26589656597148</v>
       </c>
       <c r="Q36" t="n">
         <v>0</v>
@@ -37622,10 +37622,10 @@
         <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>187.3208941729505</v>
+        <v>0</v>
       </c>
       <c r="L39" t="n">
-        <v>313.340308507459</v>
+        <v>140.2653622184629</v>
       </c>
       <c r="M39" t="n">
         <v>418.9868900890577</v>
@@ -37637,10 +37637,10 @@
         <v>339.3537175157212</v>
       </c>
       <c r="P39" t="n">
-        <v>14.26589656597125</v>
+        <v>255.7688105225382</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>118.8929265053795</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37856,10 +37856,10 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>34.77524718706022</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>187.3208941729505</v>
       </c>
       <c r="L42" t="n">
         <v>313.340308507459</v>
@@ -37868,13 +37868,13 @@
         <v>418.9868900890577</v>
       </c>
       <c r="N42" t="n">
-        <v>434.3141003226146</v>
+        <v>425.9312993607306</v>
       </c>
       <c r="O42" t="n">
         <v>339.3537175157212</v>
       </c>
       <c r="P42" t="n">
-        <v>213.7133403981269</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
         <v>0</v>
@@ -38038,10 +38038,10 @@
         <v>62.39511966487782</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>16.22391626760551</v>
       </c>
       <c r="S44" t="n">
-        <v>16.22391626760551</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
         <v>0</v>
@@ -38093,16 +38093,16 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>34.77524718706022</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>187.3208941729505</v>
+        <v>0</v>
       </c>
       <c r="L45" t="n">
         <v>313.340308507459</v>
       </c>
       <c r="M45" t="n">
-        <v>154.8352786046354</v>
+        <v>418.9868900890577</v>
       </c>
       <c r="N45" t="n">
         <v>434.3141003226146</v>
@@ -38111,7 +38111,7 @@
         <v>339.3537175157212</v>
       </c>
       <c r="P45" t="n">
-        <v>255.7688105225382</v>
+        <v>213.7133403981269</v>
       </c>
       <c r="Q45" t="n">
         <v>0</v>
